--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_middelhoog.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_middelhoog.xlsx
@@ -412,7 +412,7 @@
         <v>0.8488118725727054</v>
       </c>
       <c r="F2">
-        <v>0.5649496127737718</v>
+        <v>0.5649496127737716</v>
       </c>
       <c r="G2">
         <v>0.8386041953849267</v>
@@ -426,13 +426,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.6135223343091023</v>
+        <v>0.6135223343091022</v>
       </c>
       <c r="C3">
         <v>0.9811871683151279</v>
       </c>
       <c r="D3">
-        <v>0.590332082532357</v>
+        <v>0.5903320825323572</v>
       </c>
       <c r="E3">
         <v>0.9305479475480256</v>
@@ -441,7 +441,7 @@
         <v>0.5823614333274183</v>
       </c>
       <c r="G3">
-        <v>0.9209529458884286</v>
+        <v>0.9209529458884285</v>
       </c>
       <c r="H3">
         <v>0.9083286243689509</v>
@@ -452,19 +452,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.5520776392066072</v>
+        <v>0.5520776392066071</v>
       </c>
       <c r="C4">
-        <v>0.9172464259512356</v>
+        <v>0.9172464259512354</v>
       </c>
       <c r="D4">
         <v>0.3963684375892778</v>
       </c>
       <c r="E4">
-        <v>0.8695055594474078</v>
+        <v>0.8695055594474079</v>
       </c>
       <c r="F4">
-        <v>0.4930538134380273</v>
+        <v>0.4930538134380272</v>
       </c>
       <c r="G4">
         <v>0.8586020045453152</v>
@@ -487,10 +487,10 @@
         <v>0.3963684375892778</v>
       </c>
       <c r="E5">
-        <v>0.8695055594474078</v>
+        <v>0.8695055594474079</v>
       </c>
       <c r="F5">
-        <v>0.4930538134380274</v>
+        <v>0.4930538134380273</v>
       </c>
       <c r="G5">
         <v>0.8586020045453152</v>
@@ -504,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.5520776392066072</v>
+        <v>0.5520776392066071</v>
       </c>
       <c r="C6">
         <v>0.9172464259512356</v>
@@ -513,10 +513,10 @@
         <v>0.3963684375892778</v>
       </c>
       <c r="E6">
-        <v>0.8695055594474078</v>
+        <v>0.869505559447408</v>
       </c>
       <c r="F6">
-        <v>0.4930538134380274</v>
+        <v>0.4930538134380273</v>
       </c>
       <c r="G6">
         <v>0.8586020045453152</v>
@@ -536,13 +536,13 @@
         <v>0.8285499488978477</v>
       </c>
       <c r="D7">
-        <v>0.6517028402934478</v>
+        <v>0.6517028402934479</v>
       </c>
       <c r="E7">
         <v>0.7950859844758483</v>
       </c>
       <c r="F7">
-        <v>0.6219640689495456</v>
+        <v>0.6219640689495455</v>
       </c>
       <c r="G7">
         <v>0.7858763827659158</v>
@@ -556,16 +556,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.6548964367054766</v>
+        <v>0.6548964367054764</v>
       </c>
       <c r="C8">
         <v>0.8285499488978477</v>
       </c>
       <c r="D8">
-        <v>0.6517028402934478</v>
+        <v>0.651702840293448</v>
       </c>
       <c r="E8">
-        <v>0.7950859844758482</v>
+        <v>0.7950859844758483</v>
       </c>
       <c r="F8">
         <v>0.6219640689495456</v>
@@ -574,7 +574,7 @@
         <v>0.7858763827659158</v>
       </c>
       <c r="H8">
-        <v>0.7786692142172513</v>
+        <v>0.7786692142172514</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -588,7 +588,7 @@
         <v>0.686123856112789</v>
       </c>
       <c r="D9">
-        <v>0.7115291411962384</v>
+        <v>0.7115291411962386</v>
       </c>
       <c r="E9">
         <v>0.6687598861394055</v>
@@ -597,10 +597,10 @@
         <v>0.653811867527091</v>
       </c>
       <c r="G9">
-        <v>0.6628578896884836</v>
+        <v>0.6628578896884837</v>
       </c>
       <c r="H9">
-        <v>0.6605206393442196</v>
+        <v>0.6605206393442197</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -614,19 +614,19 @@
         <v>0.8285499488978477</v>
       </c>
       <c r="D10">
-        <v>0.6517028402934478</v>
+        <v>0.6517028402934479</v>
       </c>
       <c r="E10">
-        <v>0.7950859844758483</v>
+        <v>0.7950859844758482</v>
       </c>
       <c r="F10">
-        <v>0.6219640689495456</v>
+        <v>0.6219640689495455</v>
       </c>
       <c r="G10">
         <v>0.7858763827659158</v>
       </c>
       <c r="H10">
-        <v>0.7786692142172513</v>
+        <v>0.7786692142172514</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -640,10 +640,10 @@
         <v>0.8285499488978477</v>
       </c>
       <c r="D11">
-        <v>0.6517028402934478</v>
+        <v>0.651702840293448</v>
       </c>
       <c r="E11">
-        <v>0.7950859844758482</v>
+        <v>0.7950859844758483</v>
       </c>
       <c r="F11">
         <v>0.6219640689495456</v>
@@ -652,7 +652,7 @@
         <v>0.7858763827659158</v>
       </c>
       <c r="H11">
-        <v>0.7786692142172513</v>
+        <v>0.7786692142172514</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -678,7 +678,7 @@
         <v>0.8271615314652395</v>
       </c>
       <c r="H12">
-        <v>0.8168365088488877</v>
+        <v>0.8168365088488876</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -689,10 +689,10 @@
         <v>0.6135223343091023</v>
       </c>
       <c r="C13">
-        <v>0.9811871683151278</v>
+        <v>0.981187168315128</v>
       </c>
       <c r="D13">
-        <v>0.590332082532357</v>
+        <v>0.5903320825323571</v>
       </c>
       <c r="E13">
         <v>0.9305479475480256</v>
@@ -701,7 +701,7 @@
         <v>0.5823614333274183</v>
       </c>
       <c r="G13">
-        <v>0.9209529458884287</v>
+        <v>0.9209529458884285</v>
       </c>
       <c r="H13">
         <v>0.9083286243689511</v>
@@ -727,10 +727,10 @@
         <v>0.5139878124880422</v>
       </c>
       <c r="G14">
-        <v>0.8271615314652395</v>
+        <v>0.8271615314652394</v>
       </c>
       <c r="H14">
-        <v>0.8168365088488876</v>
+        <v>0.8168365088488875</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -738,16 +738,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.6548964367054765</v>
+        <v>0.6548964367054764</v>
       </c>
       <c r="C15">
         <v>0.8285499488978477</v>
       </c>
       <c r="D15">
-        <v>0.6517028402934479</v>
+        <v>0.651702840293448</v>
       </c>
       <c r="E15">
-        <v>0.7950859844758483</v>
+        <v>0.7950859844758482</v>
       </c>
       <c r="F15">
         <v>0.6219640689495456</v>
@@ -756,7 +756,7 @@
         <v>0.7858763827659158</v>
       </c>
       <c r="H15">
-        <v>0.7786692142172513</v>
+        <v>0.7786692142172514</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -776,10 +776,10 @@
         <v>0.7242677050524912</v>
       </c>
       <c r="F16">
-        <v>0.6034273598420548</v>
+        <v>0.6034273598420546</v>
       </c>
       <c r="G16">
-        <v>0.7127430677776627</v>
+        <v>0.7127430677776626</v>
       </c>
       <c r="H16">
         <v>0.7099902984609625</v>
@@ -793,22 +793,22 @@
         <v>0.5586593267777579</v>
       </c>
       <c r="C17">
-        <v>0.8820845025553085</v>
+        <v>0.8820845025553083</v>
       </c>
       <c r="D17">
         <v>0.4433261991763169</v>
       </c>
       <c r="E17">
-        <v>0.8373289346927928</v>
+        <v>0.8373289346927927</v>
       </c>
       <c r="F17">
-        <v>0.5139878124880423</v>
+        <v>0.5139878124880422</v>
       </c>
       <c r="G17">
         <v>0.8271615314652395</v>
       </c>
       <c r="H17">
-        <v>0.8168365088488877</v>
+        <v>0.8168365088488876</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -816,22 +816,22 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.6135223343091024</v>
+        <v>0.6135223343091023</v>
       </c>
       <c r="C18">
         <v>0.9811871683151279</v>
       </c>
       <c r="D18">
-        <v>0.5903320825323571</v>
+        <v>0.5903320825323572</v>
       </c>
       <c r="E18">
         <v>0.9305479475480256</v>
       </c>
       <c r="F18">
-        <v>0.5823614333274184</v>
+        <v>0.5823614333274183</v>
       </c>
       <c r="G18">
-        <v>0.9209529458884286</v>
+        <v>0.9209529458884285</v>
       </c>
       <c r="H18">
         <v>0.908328624368951</v>
@@ -851,10 +851,10 @@
         <v>0.5196589431247067</v>
       </c>
       <c r="E19">
-        <v>0.7242677050524912</v>
+        <v>0.7242677050524911</v>
       </c>
       <c r="F19">
-        <v>0.6034273598420548</v>
+        <v>0.6034273598420546</v>
       </c>
       <c r="G19">
         <v>0.7127430677776626</v>
@@ -868,16 +868,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.6728679202829279</v>
+        <v>0.672867920282928</v>
       </c>
       <c r="C20">
         <v>0.7502460758510594</v>
       </c>
       <c r="D20">
-        <v>0.5196589431247066</v>
+        <v>0.5196589431247067</v>
       </c>
       <c r="E20">
-        <v>0.7242677050524911</v>
+        <v>0.7242677050524909</v>
       </c>
       <c r="F20">
         <v>0.6034273598420548</v>
@@ -903,10 +903,10 @@
         <v>0.5196589431247067</v>
       </c>
       <c r="E21">
-        <v>0.7242677050524912</v>
+        <v>0.7242677050524911</v>
       </c>
       <c r="F21">
-        <v>0.6034273598420549</v>
+        <v>0.6034273598420548</v>
       </c>
       <c r="G21">
         <v>0.7127430677776626</v>
@@ -949,10 +949,10 @@
         <v>0.6289819592118959</v>
       </c>
       <c r="C23">
-        <v>0.8917848118081717</v>
+        <v>0.8917848118081716</v>
       </c>
       <c r="D23">
-        <v>0.4739302127192875</v>
+        <v>0.4739302127192876</v>
       </c>
       <c r="E23">
         <v>0.8488118725727054</v>
@@ -961,7 +961,7 @@
         <v>0.5649496127737718</v>
       </c>
       <c r="G23">
-        <v>0.8386041953849268</v>
+        <v>0.8386041953849267</v>
       </c>
       <c r="H23">
         <v>0.8292272149608989</v>
@@ -975,22 +975,22 @@
         <v>0.4623826455453007</v>
       </c>
       <c r="C24">
-        <v>0.7568904235357243</v>
+        <v>0.7568904235357242</v>
       </c>
       <c r="D24">
         <v>0.3235537460225449</v>
       </c>
       <c r="E24">
-        <v>0.720847166844067</v>
+        <v>0.7208471668440671</v>
       </c>
       <c r="F24">
         <v>0.4009189412880479</v>
       </c>
       <c r="G24">
-        <v>0.7115155642005089</v>
+        <v>0.7115155642005088</v>
       </c>
       <c r="H24">
-        <v>0.7024364901642608</v>
+        <v>0.702436490164261</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>0.7115155642005088</v>
       </c>
       <c r="H25">
-        <v>0.7024364901642608</v>
+        <v>0.702436490164261</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1033,16 +1033,16 @@
         <v>0.3235537460225449</v>
       </c>
       <c r="E26">
-        <v>0.720847166844067</v>
+        <v>0.7208471668440671</v>
       </c>
       <c r="F26">
         <v>0.4009189412880479</v>
       </c>
       <c r="G26">
-        <v>0.7115155642005089</v>
+        <v>0.7115155642005088</v>
       </c>
       <c r="H26">
-        <v>0.7024364901642608</v>
+        <v>0.702436490164261</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1053,13 +1053,13 @@
         <v>0.6928451205112003</v>
       </c>
       <c r="C27">
-        <v>0.9452876597114144</v>
+        <v>0.9452876597114142</v>
       </c>
       <c r="D27">
         <v>0.3861931120451852</v>
       </c>
       <c r="E27">
-        <v>0.8990879249167311</v>
+        <v>0.8990879249167312</v>
       </c>
       <c r="F27">
         <v>0.5597541856551072</v>
@@ -1068,7 +1068,7 @@
         <v>0.8834906702140387</v>
       </c>
       <c r="H27">
-        <v>0.8750426363872178</v>
+        <v>0.8750426363872175</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1079,22 +1079,22 @@
         <v>0.6928451205112003</v>
       </c>
       <c r="C28">
-        <v>0.9452876597114145</v>
+        <v>0.9452876597114144</v>
       </c>
       <c r="D28">
-        <v>0.3861931120451852</v>
+        <v>0.3861931120451853</v>
       </c>
       <c r="E28">
         <v>0.8990879249167312</v>
       </c>
       <c r="F28">
-        <v>0.5597541856551073</v>
+        <v>0.5597541856551072</v>
       </c>
       <c r="G28">
         <v>0.8834906702140389</v>
       </c>
       <c r="H28">
-        <v>0.8750426363872178</v>
+        <v>0.8750426363872175</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1105,7 +1105,7 @@
         <v>0.6928451205112003</v>
       </c>
       <c r="C29">
-        <v>0.9452876597114144</v>
+        <v>0.9452876597114143</v>
       </c>
       <c r="D29">
         <v>0.3861931120451852</v>
@@ -1114,13 +1114,13 @@
         <v>0.8990879249167312</v>
       </c>
       <c r="F29">
-        <v>0.5597541856551073</v>
+        <v>0.5597541856551072</v>
       </c>
       <c r="G29">
         <v>0.8834906702140387</v>
       </c>
       <c r="H29">
-        <v>0.8750426363872178</v>
+        <v>0.8750426363872176</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1134,7 +1134,7 @@
         <v>0.8673533432090015</v>
       </c>
       <c r="D30">
-        <v>0.9794603867459881</v>
+        <v>0.9794603867459883</v>
       </c>
       <c r="E30">
         <v>0.8489784522420882</v>
@@ -1143,10 +1143,10 @@
         <v>0.8902716640511407</v>
       </c>
       <c r="G30">
-        <v>0.848886947678996</v>
+        <v>0.8488869476789959</v>
       </c>
       <c r="H30">
-        <v>0.8482618942268829</v>
+        <v>0.8482618942268828</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1160,7 +1160,7 @@
         <v>0.8673533432090015</v>
       </c>
       <c r="D31">
-        <v>0.9794603867459881</v>
+        <v>0.9794603867459883</v>
       </c>
       <c r="E31">
         <v>0.8489784522420882</v>
@@ -1169,7 +1169,7 @@
         <v>0.8902716640511407</v>
       </c>
       <c r="G31">
-        <v>0.848886947678996</v>
+        <v>0.8488869476789959</v>
       </c>
       <c r="H31">
         <v>0.848261894226883</v>
@@ -1186,19 +1186,19 @@
         <v>1.001544965429997</v>
       </c>
       <c r="D32">
-        <v>0.8950836922463422</v>
+        <v>0.8950836922463423</v>
       </c>
       <c r="E32">
         <v>0.9593376332575703</v>
       </c>
       <c r="F32">
-        <v>0.842768349271545</v>
+        <v>0.8427683492715451</v>
       </c>
       <c r="G32">
         <v>0.9540058331822773</v>
       </c>
       <c r="H32">
-        <v>0.9462121574861024</v>
+        <v>0.9462121574861023</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1209,7 +1209,7 @@
         <v>0.8098915899003402</v>
       </c>
       <c r="C33">
-        <v>0.8673533432090015</v>
+        <v>0.8673533432090014</v>
       </c>
       <c r="D33">
         <v>0.9794603867459881</v>
@@ -1218,13 +1218,13 @@
         <v>0.8489784522420882</v>
       </c>
       <c r="F33">
-        <v>0.8902716640511406</v>
+        <v>0.8902716640511408</v>
       </c>
       <c r="G33">
         <v>0.8488869476789956</v>
       </c>
       <c r="H33">
-        <v>0.848261894226883</v>
+        <v>0.8482618942268828</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1238,13 +1238,13 @@
         <v>1.200374229551632</v>
       </c>
       <c r="D34">
-        <v>0.7414594103946269</v>
+        <v>0.741459410394627</v>
       </c>
       <c r="E34">
         <v>1.135134180493891</v>
       </c>
       <c r="F34">
-        <v>0.8431860182922102</v>
+        <v>0.8431860182922104</v>
       </c>
       <c r="G34">
         <v>1.124344561212507</v>
@@ -1270,7 +1270,7 @@
         <v>1.120243260260557</v>
       </c>
       <c r="F35">
-        <v>0.8796147183507463</v>
+        <v>0.8796147183507464</v>
       </c>
       <c r="G35">
         <v>1.107699896378253</v>
@@ -1287,22 +1287,22 @@
         <v>0.6930416176585006</v>
       </c>
       <c r="C36">
-        <v>0.9343950627466125</v>
+        <v>0.9343950627466124</v>
       </c>
       <c r="D36">
-        <v>0.8473691993594649</v>
+        <v>0.847369199359465</v>
       </c>
       <c r="E36">
         <v>0.8934120767919771</v>
       </c>
       <c r="F36">
-        <v>0.7880090135660325</v>
+        <v>0.7880090135660327</v>
       </c>
       <c r="G36">
-        <v>0.8943768664314029</v>
+        <v>0.8943768664314028</v>
       </c>
       <c r="H36">
-        <v>0.8865088660541737</v>
+        <v>0.8865088660541736</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1310,16 +1310,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.8592962337282717</v>
+        <v>0.859296233728272</v>
       </c>
       <c r="C37">
-        <v>0.8535417781963596</v>
+        <v>0.8535417781963593</v>
       </c>
       <c r="D37">
         <v>0.9945785971686862</v>
       </c>
       <c r="E37">
-        <v>0.8419921298435795</v>
+        <v>0.8419921298435796</v>
       </c>
       <c r="F37">
         <v>0.918258919025586</v>
@@ -1328,7 +1328,7 @@
         <v>0.8409457380242082</v>
       </c>
       <c r="H37">
-        <v>0.8429664834418549</v>
+        <v>0.8429664834418548</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1336,7 +1336,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.8592962337282717</v>
+        <v>0.8592962337282719</v>
       </c>
       <c r="C38">
         <v>0.8535417781963596</v>
@@ -1351,10 +1351,10 @@
         <v>0.918258919025586</v>
       </c>
       <c r="G38">
-        <v>0.8409457380242081</v>
+        <v>0.840945738024208</v>
       </c>
       <c r="H38">
-        <v>0.8429664834418549</v>
+        <v>0.8429664834418548</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1362,7 +1362,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.9440677691440794</v>
+        <v>0.9440677691440796</v>
       </c>
       <c r="C39">
         <v>1.039066556958522</v>
@@ -1377,10 +1377,10 @@
         <v>0.9284640193509149</v>
       </c>
       <c r="G39">
-        <v>0.9884671871731816</v>
+        <v>0.9884671871731814</v>
       </c>
       <c r="H39">
-        <v>0.9864429646965619</v>
+        <v>0.9864429646965618</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1391,7 +1391,7 @@
         <v>0.9233883626084457</v>
       </c>
       <c r="C40">
-        <v>1.218317077840899</v>
+        <v>1.2183170778409</v>
       </c>
       <c r="D40">
         <v>0.6667262026357713</v>
@@ -1400,13 +1400,13 @@
         <v>1.153661412664622</v>
       </c>
       <c r="F40">
-        <v>0.8537816226893136</v>
+        <v>0.8537816226893137</v>
       </c>
       <c r="G40">
         <v>1.140345581914467</v>
       </c>
       <c r="H40">
-        <v>1.128066264129648</v>
+        <v>1.128066264129647</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1426,7 +1426,7 @@
         <v>1.120243260260557</v>
       </c>
       <c r="F41">
-        <v>0.8796147183507463</v>
+        <v>0.8796147183507466</v>
       </c>
       <c r="G41">
         <v>1.107699896378253</v>
@@ -1440,7 +1440,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.7766268733525319</v>
+        <v>0.776626873352532</v>
       </c>
       <c r="C42">
         <v>0.9551585358297953</v>
@@ -1466,7 +1466,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.7270331790275969</v>
+        <v>0.727033179027597</v>
       </c>
       <c r="C43">
         <v>1.086530065056155</v>
@@ -1492,13 +1492,13 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.5902350852542443</v>
+        <v>0.5902350852542442</v>
       </c>
       <c r="C44">
         <v>1.131105570822665</v>
       </c>
       <c r="D44">
-        <v>0.5524538789433346</v>
+        <v>0.5524538789433345</v>
       </c>
       <c r="E44">
         <v>1.061669326799057</v>
@@ -1518,7 +1518,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.7076351756413217</v>
+        <v>0.7076351756413218</v>
       </c>
       <c r="C45">
         <v>0.9092888261529274</v>
@@ -1533,7 +1533,7 @@
         <v>0.7677710475742989</v>
       </c>
       <c r="G45">
-        <v>0.8686762017042564</v>
+        <v>0.8686762017042563</v>
       </c>
       <c r="H45">
         <v>0.8628199855864116</v>
@@ -1544,19 +1544,19 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.8382514190861651</v>
+        <v>0.8382514190861653</v>
       </c>
       <c r="C46">
         <v>0.9898129572476392</v>
       </c>
       <c r="D46">
-        <v>0.9102603486963233</v>
+        <v>0.9102603486963234</v>
       </c>
       <c r="E46">
         <v>0.9520431289061906</v>
       </c>
       <c r="F46">
-        <v>0.8713521470037082</v>
+        <v>0.8713521470037083</v>
       </c>
       <c r="G46">
         <v>0.9459240943475958</v>
@@ -1582,7 +1582,7 @@
         <v>1.035444470071669</v>
       </c>
       <c r="F47">
-        <v>0.6890606416922612</v>
+        <v>0.6890606416922611</v>
       </c>
       <c r="G47">
         <v>1.032708885689057</v>
@@ -1608,13 +1608,13 @@
         <v>0.9824594090884089</v>
       </c>
       <c r="F48">
-        <v>0.7163432749471819</v>
+        <v>0.7163432749471818</v>
       </c>
       <c r="G48">
-        <v>0.9811947392238622</v>
+        <v>0.981194739223862</v>
       </c>
       <c r="H48">
-        <v>0.9673713085045259</v>
+        <v>0.9673713085045258</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1625,7 +1625,7 @@
         <v>0.6731197694463079</v>
       </c>
       <c r="C49">
-        <v>0.7147364211694545</v>
+        <v>0.7147364211694542</v>
       </c>
       <c r="D49">
         <v>0.7115701110833046</v>
@@ -1634,7 +1634,7 @@
         <v>0.6939076773588752</v>
       </c>
       <c r="F49">
-        <v>0.6600343636540494</v>
+        <v>0.6600343636540493</v>
       </c>
       <c r="G49">
         <v>0.6849296708337388</v>
@@ -1654,7 +1654,7 @@
         <v>0.7877212935771315</v>
       </c>
       <c r="D50">
-        <v>0.7431017893665348</v>
+        <v>0.743101789366535</v>
       </c>
       <c r="E50">
         <v>0.7563696242616114</v>
@@ -1709,13 +1709,13 @@
         <v>0.5007202237174984</v>
       </c>
       <c r="E52">
-        <v>0.752394924467372</v>
+        <v>0.7523949244673719</v>
       </c>
       <c r="F52">
-        <v>0.4835328654175808</v>
+        <v>0.4835328654175807</v>
       </c>
       <c r="G52">
-        <v>0.7430397845956289</v>
+        <v>0.7430397845956288</v>
       </c>
       <c r="H52">
         <v>0.7336754613588052</v>
@@ -1726,10 +1726,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.5974235565037744</v>
+        <v>0.5974235565037743</v>
       </c>
       <c r="C53">
-        <v>0.6462420668540958</v>
+        <v>0.6462420668540959</v>
       </c>
       <c r="D53">
         <v>0.6781009066764441</v>
@@ -1741,7 +1741,7 @@
         <v>0.6069358635910928</v>
       </c>
       <c r="G53">
-        <v>0.6229241076105653</v>
+        <v>0.6229241076105652</v>
       </c>
       <c r="H53">
         <v>0.6196774835753096</v>
@@ -1752,25 +1752,25 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.5529593713858856</v>
+        <v>0.5529593713858855</v>
       </c>
       <c r="C54">
-        <v>0.628207431610291</v>
+        <v>0.6282074316102909</v>
       </c>
       <c r="D54">
         <v>0.6324612451922408</v>
       </c>
       <c r="E54">
-        <v>0.6094111027759758</v>
+        <v>0.6094111027759757</v>
       </c>
       <c r="F54">
         <v>0.5599799773577013</v>
       </c>
       <c r="G54">
-        <v>0.6030824163345396</v>
+        <v>0.6030824163345397</v>
       </c>
       <c r="H54">
-        <v>0.5992562385679653</v>
+        <v>0.5992562385679654</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1781,10 +1781,10 @@
         <v>0.669562504668439</v>
       </c>
       <c r="C55">
-        <v>0.7877212935771316</v>
+        <v>0.7877212935771315</v>
       </c>
       <c r="D55">
-        <v>0.7431017893665348</v>
+        <v>0.743101789366535</v>
       </c>
       <c r="E55">
         <v>0.7563696242616113</v>
@@ -1807,7 +1807,7 @@
         <v>0.7293723089815475</v>
       </c>
       <c r="C56">
-        <v>0.9036210944227143</v>
+        <v>0.9036210944227142</v>
       </c>
       <c r="D56">
         <v>0.571931739465413</v>
@@ -1836,16 +1836,16 @@
         <v>0.7811633125621815</v>
       </c>
       <c r="D57">
-        <v>0.4553640349358726</v>
+        <v>0.4553640349358727</v>
       </c>
       <c r="E57">
-        <v>0.7464100418679109</v>
+        <v>0.7464100418679108</v>
       </c>
       <c r="F57">
         <v>0.4926114920049406</v>
       </c>
       <c r="G57">
-        <v>0.736120484794338</v>
+        <v>0.7361204847943379</v>
       </c>
       <c r="H57">
         <v>0.7280364049218002</v>
@@ -1865,13 +1865,13 @@
         <v>0.4939784998903253</v>
       </c>
       <c r="E58">
-        <v>0.8600088023288565</v>
+        <v>0.8600088023288562</v>
       </c>
       <c r="F58">
-        <v>0.6434247660695344</v>
+        <v>0.6434247660695342</v>
       </c>
       <c r="G58">
-        <v>0.8438369043407294</v>
+        <v>0.8438369043407292</v>
       </c>
       <c r="H58">
         <v>0.8375765578738297</v>
@@ -1891,13 +1891,13 @@
         <v>0.4939784998903253</v>
       </c>
       <c r="E59">
-        <v>0.8600088023288565</v>
+        <v>0.8600088023288562</v>
       </c>
       <c r="F59">
         <v>0.6434247660695342</v>
       </c>
       <c r="G59">
-        <v>0.8438369043407294</v>
+        <v>0.8438369043407292</v>
       </c>
       <c r="H59">
         <v>0.8375765578738296</v>
@@ -1911,10 +1911,10 @@
         <v>0.5823469012384378</v>
       </c>
       <c r="C60">
-        <v>0.7182836340782192</v>
+        <v>0.7182836340782193</v>
       </c>
       <c r="D60">
-        <v>0.3328399669084668</v>
+        <v>0.3328399669084669</v>
       </c>
       <c r="E60">
         <v>0.686533417592977</v>
@@ -1923,7 +1923,7 @@
         <v>0.4564173141613587</v>
       </c>
       <c r="G60">
-        <v>0.6756191631339056</v>
+        <v>0.6756191631339055</v>
       </c>
       <c r="H60">
         <v>0.6685055314372981</v>
@@ -1937,19 +1937,19 @@
         <v>0.5823469012384379</v>
       </c>
       <c r="C61">
-        <v>0.7182836340782192</v>
+        <v>0.7182836340782194</v>
       </c>
       <c r="D61">
-        <v>0.3328399669084668</v>
+        <v>0.3328399669084669</v>
       </c>
       <c r="E61">
         <v>0.686533417592977</v>
       </c>
       <c r="F61">
-        <v>0.4564173141613588</v>
+        <v>0.4564173141613587</v>
       </c>
       <c r="G61">
-        <v>0.6756191631339056</v>
+        <v>0.6756191631339055</v>
       </c>
       <c r="H61">
         <v>0.6685055314372982</v>
@@ -1963,7 +1963,7 @@
         <v>0.3042711480666559</v>
       </c>
       <c r="C62">
-        <v>0.6319116742417837</v>
+        <v>0.6319116742417836</v>
       </c>
       <c r="D62">
         <v>0.2095900059005547</v>
@@ -1975,7 +1975,7 @@
         <v>0.2562736837921841</v>
       </c>
       <c r="G62">
-        <v>0.5944693055707887</v>
+        <v>0.5944693055707888</v>
       </c>
       <c r="H62">
         <v>0.586186144528181</v>
@@ -1989,7 +1989,7 @@
         <v>0.3042711480666559</v>
       </c>
       <c r="C63">
-        <v>0.6319116742417838</v>
+        <v>0.6319116742417837</v>
       </c>
       <c r="D63">
         <v>0.2095900059005547</v>
@@ -2021,7 +2021,7 @@
         <v>0.165107113805256</v>
       </c>
       <c r="E64">
-        <v>0.5637597562298491</v>
+        <v>0.563759756229849</v>
       </c>
       <c r="F64">
         <v>0.1775606875886422</v>
@@ -2030,7 +2030,7 @@
         <v>0.5582319827344281</v>
       </c>
       <c r="H64">
-        <v>0.5497574325691152</v>
+        <v>0.5497574325691154</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2047,16 +2047,16 @@
         <v>0.165107113805256</v>
       </c>
       <c r="E65">
-        <v>0.5637597562298489</v>
+        <v>0.563759756229849</v>
       </c>
       <c r="F65">
         <v>0.1775606875886422</v>
       </c>
       <c r="G65">
-        <v>0.5582319827344282</v>
+        <v>0.5582319827344281</v>
       </c>
       <c r="H65">
-        <v>0.5497574325691152</v>
+        <v>0.5497574325691154</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.8620724496045515</v>
+        <v>0.862072449604551</v>
       </c>
       <c r="C66">
-        <v>0.9709755198820968</v>
+        <v>0.9709755198820967</v>
       </c>
       <c r="D66">
-        <v>0.6537443045892041</v>
+        <v>0.6537443045892042</v>
       </c>
       <c r="E66">
-        <v>0.9277599480043172</v>
+        <v>0.9277599480043174</v>
       </c>
       <c r="F66">
         <v>0.7883161282582776</v>
       </c>
       <c r="G66">
-        <v>0.9224206635404925</v>
+        <v>0.9224206635404922</v>
       </c>
       <c r="H66">
-        <v>0.9144862771192518</v>
+        <v>0.9144862771192517</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2090,13 +2090,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.8109876430971569</v>
+        <v>0.8109876430971564</v>
       </c>
       <c r="C67">
-        <v>1.115640699744483</v>
+        <v>1.115640699744482</v>
       </c>
       <c r="D67">
-        <v>0.589022206950417</v>
+        <v>0.5890222069504171</v>
       </c>
       <c r="E67">
         <v>1.053747125373933</v>
@@ -2116,13 +2116,13 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.8620724496045515</v>
+        <v>0.8620724496045511</v>
       </c>
       <c r="C68">
-        <v>0.9709755198820967</v>
+        <v>0.9709755198820965</v>
       </c>
       <c r="D68">
-        <v>0.6537443045892041</v>
+        <v>0.6537443045892042</v>
       </c>
       <c r="E68">
         <v>0.9277599480043174</v>
@@ -2131,10 +2131,10 @@
         <v>0.7883161282582776</v>
       </c>
       <c r="G68">
-        <v>0.9224206635404925</v>
+        <v>0.9224206635404922</v>
       </c>
       <c r="H68">
-        <v>0.9144862771192518</v>
+        <v>0.9144862771192517</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2142,13 +2142,13 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.8109876430971569</v>
+        <v>0.8109876430971564</v>
       </c>
       <c r="C69">
         <v>1.115640699744482</v>
       </c>
       <c r="D69">
-        <v>0.589022206950417</v>
+        <v>0.5890222069504172</v>
       </c>
       <c r="E69">
         <v>1.053747125373933</v>
@@ -2168,13 +2168,13 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.8109876430971567</v>
+        <v>0.8109876430971564</v>
       </c>
       <c r="C70">
-        <v>1.115640699744483</v>
+        <v>1.115640699744482</v>
       </c>
       <c r="D70">
-        <v>0.589022206950417</v>
+        <v>0.5890222069504171</v>
       </c>
       <c r="E70">
         <v>1.053747125373933</v>
@@ -2194,7 +2194,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.8267172877120056</v>
+        <v>0.8267172877120058</v>
       </c>
       <c r="C71">
         <v>1.200211623526088</v>
@@ -2220,7 +2220,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.8025359870691254</v>
+        <v>0.8025359870691253</v>
       </c>
       <c r="C72">
         <v>1.154629032786211</v>
@@ -2232,10 +2232,10 @@
         <v>1.089197213968133</v>
       </c>
       <c r="F72">
-        <v>0.6919593503726609</v>
+        <v>0.6919593503726611</v>
       </c>
       <c r="G72">
-        <v>1.082072374053621</v>
+        <v>1.08207237405362</v>
       </c>
       <c r="H72">
         <v>1.066399971282074</v>
@@ -2246,7 +2246,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.8025359870691254</v>
+        <v>0.8025359870691251</v>
       </c>
       <c r="C73">
         <v>1.154629032786211</v>
@@ -2258,7 +2258,7 @@
         <v>1.089197213968133</v>
       </c>
       <c r="F73">
-        <v>0.6919593503726609</v>
+        <v>0.6919593503726611</v>
       </c>
       <c r="G73">
         <v>1.082072374053621</v>
@@ -2272,7 +2272,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.8025359870691254</v>
+        <v>0.8025359870691253</v>
       </c>
       <c r="C74">
         <v>1.154629032786211</v>
@@ -2284,7 +2284,7 @@
         <v>1.089197213968133</v>
       </c>
       <c r="F74">
-        <v>0.6919593503726609</v>
+        <v>0.6919593503726611</v>
       </c>
       <c r="G74">
         <v>1.082072374053621</v>
@@ -2298,7 +2298,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.7066970799631025</v>
+        <v>0.7066970799631023</v>
       </c>
       <c r="C75">
         <v>0.9872493949220456</v>
@@ -2324,13 +2324,13 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.8109876430971569</v>
+        <v>0.8109876430971564</v>
       </c>
       <c r="C76">
-        <v>1.115640699744483</v>
+        <v>1.115640699744482</v>
       </c>
       <c r="D76">
-        <v>0.589022206950417</v>
+        <v>0.5890222069504171</v>
       </c>
       <c r="E76">
         <v>1.053747125373933</v>
@@ -2350,7 +2350,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.8591448395643638</v>
+        <v>0.8591448395643635</v>
       </c>
       <c r="C77">
         <v>1.126507950436526</v>
@@ -2362,7 +2362,7 @@
         <v>1.064263985783503</v>
       </c>
       <c r="F77">
-        <v>0.6892411990989552</v>
+        <v>0.6892411990989553</v>
       </c>
       <c r="G77">
         <v>1.056117737446965</v>
@@ -2376,13 +2376,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.8591448395643638</v>
+        <v>0.8591448395643632</v>
       </c>
       <c r="C78">
         <v>1.126507950436526</v>
       </c>
       <c r="D78">
-        <v>0.5323591471614018</v>
+        <v>0.5323591471614019</v>
       </c>
       <c r="E78">
         <v>1.064263985783503</v>
@@ -2402,7 +2402,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.8591448395643638</v>
+        <v>0.8591448395643634</v>
       </c>
       <c r="C79">
         <v>1.126507950436526</v>
@@ -2417,7 +2417,7 @@
         <v>0.6892411990989553</v>
       </c>
       <c r="G79">
-        <v>1.056117737446965</v>
+        <v>1.056117737446964</v>
       </c>
       <c r="H79">
         <v>1.041233866118645</v>
@@ -2428,13 +2428,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.8591448395643638</v>
+        <v>0.8591448395643634</v>
       </c>
       <c r="C80">
-        <v>1.126507950436527</v>
+        <v>1.126507950436526</v>
       </c>
       <c r="D80">
-        <v>0.5323591471614018</v>
+        <v>0.532359147161402</v>
       </c>
       <c r="E80">
         <v>1.064263985783503</v>
@@ -2460,13 +2460,13 @@
         <v>1.181586151679468</v>
       </c>
       <c r="D81">
-        <v>0.6092744927427751</v>
+        <v>0.6092744927427749</v>
       </c>
       <c r="E81">
         <v>1.116517665487782</v>
       </c>
       <c r="F81">
-        <v>0.7851184453387094</v>
+        <v>0.7851184453387097</v>
       </c>
       <c r="G81">
         <v>1.107987658513416</v>
@@ -2486,13 +2486,13 @@
         <v>1.181586151679468</v>
       </c>
       <c r="D82">
-        <v>0.6092744927427751</v>
+        <v>0.6092744927427749</v>
       </c>
       <c r="E82">
         <v>1.116517665487782</v>
       </c>
       <c r="F82">
-        <v>0.7851184453387096</v>
+        <v>0.7851184453387097</v>
       </c>
       <c r="G82">
         <v>1.107987658513416</v>
@@ -2506,7 +2506,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.6553766044177659</v>
+        <v>0.6553766044177657</v>
       </c>
       <c r="C83">
         <v>1.061182528806353</v>
@@ -2532,7 +2532,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.655376604417766</v>
+        <v>0.6553766044177657</v>
       </c>
       <c r="C84">
         <v>1.061182528806353</v>
@@ -2558,7 +2558,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.6974589781694057</v>
+        <v>0.6974589781694058</v>
       </c>
       <c r="C85">
         <v>1.197880779125354</v>
@@ -2584,7 +2584,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.6974589781694057</v>
+        <v>0.6974589781694058</v>
       </c>
       <c r="C86">
         <v>1.197880779125354</v>
@@ -2596,7 +2596,7 @@
         <v>1.13170538902401</v>
       </c>
       <c r="F86">
-        <v>0.6161413163551839</v>
+        <v>0.616141316355184</v>
       </c>
       <c r="G86">
         <v>1.113354747347993</v>
@@ -2610,7 +2610,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.7779940719970004</v>
+        <v>0.7779940719970005</v>
       </c>
       <c r="C87">
         <v>1.223571670379922</v>
@@ -2642,7 +2642,7 @@
         <v>1.223571670379922</v>
       </c>
       <c r="D88">
-        <v>0.2677069888738787</v>
+        <v>0.2677069888738788</v>
       </c>
       <c r="E88">
         <v>1.156335578135934</v>
@@ -2662,10 +2662,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.7779940719970002</v>
+        <v>0.7779940719970005</v>
       </c>
       <c r="C89">
-        <v>1.223571670379922</v>
+        <v>1.223571670379921</v>
       </c>
       <c r="D89">
         <v>0.2677069888738788</v>
@@ -2691,13 +2691,13 @@
         <v>1.397056737727407</v>
       </c>
       <c r="C90">
-        <v>0.7317422557803466</v>
+        <v>0.7317422557803465</v>
       </c>
       <c r="D90">
         <v>1.977093204329423</v>
       </c>
       <c r="E90">
-        <v>0.9429266831863508</v>
+        <v>0.9429266831863506</v>
       </c>
       <c r="F90">
         <v>1.696289901189472</v>
@@ -2706,7 +2706,7 @@
         <v>1.053722765762412</v>
       </c>
       <c r="H90">
-        <v>1.057621398175171</v>
+        <v>1.05762139817517</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2723,7 +2723,7 @@
         <v>1.982272874932121</v>
       </c>
       <c r="E91">
-        <v>0.9335891464030455</v>
+        <v>0.9335891464030454</v>
       </c>
       <c r="F91">
         <v>1.699651546451839</v>
@@ -2743,16 +2743,16 @@
         <v>1.418008905060595</v>
       </c>
       <c r="C92">
-        <v>0.6036035221243297</v>
+        <v>0.6036035221243296</v>
       </c>
       <c r="D92">
         <v>2.004401628193309</v>
       </c>
       <c r="E92">
-        <v>0.8936970251864117</v>
+        <v>0.8936970251864118</v>
       </c>
       <c r="F92">
-        <v>1.714013274111475</v>
+        <v>1.714013274111476</v>
       </c>
       <c r="G92">
         <v>1.02975539302343</v>
@@ -2769,7 +2769,7 @@
         <v>1.366332731452324</v>
       </c>
       <c r="C93">
-        <v>0.9196433542358122</v>
+        <v>0.919643354235812</v>
       </c>
       <c r="D93">
         <v>1.937048459897297</v>
@@ -2795,7 +2795,7 @@
         <v>1.421865872737908</v>
       </c>
       <c r="C94">
-        <v>0.3573012312662389</v>
+        <v>0.3573012312662388</v>
       </c>
       <c r="D94">
         <v>1.783465622570277</v>
@@ -2807,10 +2807,10 @@
         <v>1.546586589293941</v>
       </c>
       <c r="G94">
-        <v>0.8949549864798303</v>
+        <v>0.8949549864798304</v>
       </c>
       <c r="H94">
-        <v>0.9200092280911426</v>
+        <v>0.9200092280911427</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2821,7 +2821,7 @@
         <v>1.369135421711549</v>
       </c>
       <c r="C95">
-        <v>0.9025027322211046</v>
+        <v>0.9025027322211044</v>
       </c>
       <c r="D95">
         <v>1.940701401969635</v>
@@ -2836,7 +2836,7 @@
         <v>1.08566221038755</v>
       </c>
       <c r="H95">
-        <v>1.084471587308112</v>
+        <v>1.084471587308111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2905,7 +2905,7 @@
         <v>1.695054621433664</v>
       </c>
       <c r="E98">
-        <v>1.002487568881381</v>
+        <v>1.00248756888138</v>
       </c>
       <c r="F98">
         <v>1.500507388117013</v>
@@ -2925,7 +2925,7 @@
         <v>1.289695123058631</v>
       </c>
       <c r="C99">
-        <v>0.8373013165812483</v>
+        <v>0.8373013165812482</v>
       </c>
       <c r="D99">
         <v>1.709811222824222</v>
@@ -2951,13 +2951,13 @@
         <v>1.372650863007047</v>
       </c>
       <c r="C100">
-        <v>0.8431059131622176</v>
+        <v>0.8431059131622174</v>
       </c>
       <c r="D100">
         <v>1.684903861826166</v>
       </c>
       <c r="E100">
-        <v>0.9691415932127477</v>
+        <v>0.9691415932127476</v>
       </c>
       <c r="F100">
         <v>1.522152306958586</v>
@@ -2977,7 +2977,7 @@
         <v>1.381578209500652</v>
       </c>
       <c r="C101">
-        <v>0.7919799793659287</v>
+        <v>0.7919799793659286</v>
       </c>
       <c r="D101">
         <v>1.69513208974941</v>
@@ -2989,7 +2989,7 @@
         <v>1.528617892017523</v>
       </c>
       <c r="G101">
-        <v>0.9971276207708084</v>
+        <v>0.9971276207708082</v>
       </c>
       <c r="H101">
         <v>1.015037115286789</v>
@@ -3003,7 +3003,7 @@
         <v>1.364348149888311</v>
       </c>
       <c r="C102">
-        <v>0.8906546401598848</v>
+        <v>0.8906546401598847</v>
       </c>
       <c r="D102">
         <v>1.675391288048441</v>
@@ -3035,10 +3035,10 @@
         <v>1.467109859957955</v>
       </c>
       <c r="E103">
-        <v>0.9881864029253142</v>
+        <v>0.9881864029253141</v>
       </c>
       <c r="F103">
-        <v>1.352607615695029</v>
+        <v>1.35260761569503</v>
       </c>
       <c r="G103">
         <v>1.003791225242444</v>
@@ -3093,7 +3093,7 @@
         <v>1.334616468871174</v>
       </c>
       <c r="G105">
-        <v>1.11749994284713</v>
+        <v>1.117499942847129</v>
       </c>
       <c r="H105">
         <v>1.118436194175216</v>
@@ -3159,13 +3159,13 @@
         <v>1.16926109328644</v>
       </c>
       <c r="C108">
-        <v>1.41060277217852</v>
+        <v>1.410602772178519</v>
       </c>
       <c r="D108">
         <v>1.189306126858718</v>
       </c>
       <c r="E108">
-        <v>1.351708178482702</v>
+        <v>1.351708178482701</v>
       </c>
       <c r="F108">
         <v>1.208487033193066</v>
@@ -3191,10 +3191,10 @@
         <v>1.207974786405548</v>
       </c>
       <c r="E109">
-        <v>1.092987069003053</v>
+        <v>1.092987069003054</v>
       </c>
       <c r="F109">
-        <v>1.207783413951536</v>
+        <v>1.207783413951537</v>
       </c>
       <c r="G109">
         <v>1.080378890037962</v>
@@ -3217,7 +3217,7 @@
         <v>1.207974786405548</v>
       </c>
       <c r="E110">
-        <v>1.092987069003053</v>
+        <v>1.092987069003054</v>
       </c>
       <c r="F110">
         <v>1.207783413951536</v>
@@ -3234,10 +3234,10 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1.148172406200212</v>
+        <v>1.148172406200213</v>
       </c>
       <c r="C111">
-        <v>1.033891823134668</v>
+        <v>1.033891823134667</v>
       </c>
       <c r="D111">
         <v>1.213254054487497</v>
@@ -3278,7 +3278,7 @@
         <v>1.002910969331609</v>
       </c>
       <c r="H112">
-        <v>1.020039490073204</v>
+        <v>1.020039490073203</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3318,7 +3318,7 @@
         <v>1.244496892296336</v>
       </c>
       <c r="D114">
-        <v>1.026074717075755</v>
+        <v>1.026074717075756</v>
       </c>
       <c r="E114">
         <v>1.206447195560633</v>
@@ -3330,7 +3330,7 @@
         <v>1.186906934306423</v>
       </c>
       <c r="H114">
-        <v>1.185578949984695</v>
+        <v>1.185578949984694</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3353,7 +3353,7 @@
         <v>1.329115662259777</v>
       </c>
       <c r="G115">
-        <v>0.9954826985334212</v>
+        <v>0.9954826985334209</v>
       </c>
       <c r="H115">
         <v>1.014100627007934</v>
@@ -3382,7 +3382,7 @@
         <v>1.002910969331609</v>
       </c>
       <c r="H116">
-        <v>1.020039490073204</v>
+        <v>1.020039490073203</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3390,7 +3390,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>1.127190742132348</v>
+        <v>1.127190742132349</v>
       </c>
       <c r="C117">
         <v>1.091628559428264</v>
@@ -3416,7 +3416,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>1.027313953758271</v>
+        <v>1.027313953758272</v>
       </c>
       <c r="C118">
         <v>1.429571447816353</v>
@@ -3445,7 +3445,7 @@
         <v>0.9957244724255573</v>
       </c>
       <c r="C119">
-        <v>1.320096613995121</v>
+        <v>1.32009661399512</v>
       </c>
       <c r="D119">
         <v>0.8064420350298209</v>
@@ -3454,7 +3454,7 @@
         <v>1.257610669654049</v>
       </c>
       <c r="F119">
-        <v>0.9856019482451996</v>
+        <v>0.9856019482451998</v>
       </c>
       <c r="G119">
         <v>1.242525798840484</v>
@@ -3471,7 +3471,7 @@
         <v>1.284584767432301</v>
       </c>
       <c r="C120">
-        <v>0.9123595922260076</v>
+        <v>0.9123595922260075</v>
       </c>
       <c r="D120">
         <v>1.767533848676933</v>
@@ -3497,13 +3497,13 @@
         <v>1.284584767432301</v>
       </c>
       <c r="C121">
-        <v>0.9123595922260076</v>
+        <v>0.9123595922260075</v>
       </c>
       <c r="D121">
         <v>1.767533848676933</v>
       </c>
       <c r="E121">
-        <v>0.9983130651064518</v>
+        <v>0.9983130651064517</v>
       </c>
       <c r="F121">
         <v>1.549468623682753</v>
@@ -3598,7 +3598,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>1.18191665832056</v>
+        <v>1.181916658320559</v>
       </c>
       <c r="C125">
         <v>1.092813104851504</v>
@@ -3639,7 +3639,7 @@
         <v>1.139874734923805</v>
       </c>
       <c r="G126">
-        <v>1.182806530346242</v>
+        <v>1.182806530346241</v>
       </c>
       <c r="H126">
         <v>1.181677838043131</v>
@@ -3679,10 +3679,10 @@
         <v>1.223371113613624</v>
       </c>
       <c r="C128">
-        <v>1.354597248776856</v>
+        <v>1.354597248776855</v>
       </c>
       <c r="D128">
-        <v>1.046077557778249</v>
+        <v>1.04607755777825</v>
       </c>
       <c r="E128">
         <v>1.296584262308178</v>
@@ -3708,7 +3708,7 @@
         <v>1.354597248776856</v>
       </c>
       <c r="D129">
-        <v>1.046077557778249</v>
+        <v>1.04607755777825</v>
       </c>
       <c r="E129">
         <v>1.296584262308178</v>
@@ -3737,7 +3737,7 @@
         <v>1.778487253617349</v>
       </c>
       <c r="E130">
-        <v>0.999349702320621</v>
+        <v>0.9993497023206208</v>
       </c>
       <c r="F130">
         <v>1.570369045105501</v>
@@ -3757,13 +3757,13 @@
         <v>1.450323263718848</v>
       </c>
       <c r="C131">
-        <v>0.6465591726721708</v>
+        <v>0.6465591726721707</v>
       </c>
       <c r="D131">
-        <v>1.824069754678082</v>
+        <v>1.824069754678083</v>
       </c>
       <c r="E131">
-        <v>0.9216609641004455</v>
+        <v>0.9216609641004454</v>
       </c>
       <c r="F131">
         <v>1.596714714346021</v>
@@ -3780,16 +3780,16 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>1.447786151024257</v>
+        <v>1.447786151024256</v>
       </c>
       <c r="C132">
         <v>0.6636186126164531</v>
       </c>
       <c r="D132">
-        <v>1.820672045228418</v>
+        <v>1.820672045228419</v>
       </c>
       <c r="E132">
-        <v>0.927451865298066</v>
+        <v>0.9274518652980658</v>
       </c>
       <c r="F132">
         <v>1.594750914044301</v>
@@ -3812,10 +3812,10 @@
         <v>0.7449320576065787</v>
       </c>
       <c r="D133">
-        <v>1.804476937925363</v>
+        <v>1.804476937925364</v>
       </c>
       <c r="E133">
-        <v>0.9550540683899568</v>
+        <v>0.9550540683899567</v>
       </c>
       <c r="F133">
         <v>1.585390503132391</v>
@@ -3835,13 +3835,13 @@
         <v>1.40971224898343</v>
       </c>
       <c r="C134">
-        <v>0.6697362762113075</v>
+        <v>0.6697362762113074</v>
       </c>
       <c r="D134">
         <v>1.908936213632181</v>
       </c>
       <c r="E134">
-        <v>0.9175580845697955</v>
+        <v>0.9175580845697954</v>
       </c>
       <c r="F134">
         <v>1.647576742017141</v>
@@ -3867,10 +3867,10 @@
         <v>1.657986068989595</v>
       </c>
       <c r="E135">
-        <v>0.9948063457170834</v>
+        <v>0.9948063457170835</v>
       </c>
       <c r="F135">
-        <v>1.494231151041391</v>
+        <v>1.494231151041392</v>
       </c>
       <c r="G135">
         <v>1.017863776124581</v>
@@ -3887,7 +3887,7 @@
         <v>1.408474038488178</v>
       </c>
       <c r="C136">
-        <v>0.8634802264002219</v>
+        <v>0.8634802264002218</v>
       </c>
       <c r="D136">
         <v>1.472910975263068</v>
@@ -3896,13 +3896,13 @@
         <v>0.9700135041768216</v>
       </c>
       <c r="F136">
-        <v>1.37932538555345</v>
+        <v>1.379325385553451</v>
       </c>
       <c r="G136">
         <v>0.9735688846703232</v>
       </c>
       <c r="H136">
-        <v>0.9949329414028966</v>
+        <v>0.9949329414028965</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3910,10 +3910,10 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>1.402585839898446</v>
+        <v>1.402585839898447</v>
       </c>
       <c r="C137">
-        <v>0.898380488436385</v>
+        <v>0.8983804884363848</v>
       </c>
       <c r="D137">
         <v>1.465541294654143</v>
@@ -3922,7 +3922,7 @@
         <v>0.983180878871563</v>
       </c>
       <c r="F137">
-        <v>1.375187571032221</v>
+        <v>1.375187571032222</v>
       </c>
       <c r="G137">
         <v>0.9849974217075217</v>
@@ -3939,7 +3939,7 @@
         <v>1.402585839898447</v>
       </c>
       <c r="C138">
-        <v>0.8983804884363848</v>
+        <v>0.8983804884363847</v>
       </c>
       <c r="D138">
         <v>1.465541294654143</v>
@@ -3948,7 +3948,7 @@
         <v>0.983180878871563</v>
       </c>
       <c r="F138">
-        <v>1.375187571032221</v>
+        <v>1.375187571032222</v>
       </c>
       <c r="G138">
         <v>0.9849974217075218</v>
@@ -3965,10 +3965,10 @@
         <v>1.366107522881799</v>
       </c>
       <c r="C139">
-        <v>0.8996574573354384</v>
+        <v>0.8996574573354383</v>
       </c>
       <c r="D139">
-        <v>1.595932669583567</v>
+        <v>1.595932669583568</v>
       </c>
       <c r="E139">
         <v>0.9866363952219296</v>
@@ -3991,10 +3991,10 @@
         <v>1.217168456129038</v>
       </c>
       <c r="C140">
-        <v>0.8762538553752238</v>
+        <v>0.8762538553752236</v>
       </c>
       <c r="D140">
-        <v>0.9757371249639288</v>
+        <v>0.9757371249639291</v>
       </c>
       <c r="E140">
         <v>0.9786527430415544</v>
@@ -4003,10 +4003,10 @@
         <v>1.085103939787283</v>
       </c>
       <c r="G140">
-        <v>0.9462188854957615</v>
+        <v>0.9462188854957614</v>
       </c>
       <c r="H140">
-        <v>0.9696049870975276</v>
+        <v>0.9696049870975274</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4020,7 +4020,7 @@
         <v>0.8996574573354384</v>
       </c>
       <c r="D141">
-        <v>1.595932669583567</v>
+        <v>1.595932669583568</v>
       </c>
       <c r="E141">
         <v>0.9866363952219296</v>
@@ -4043,7 +4043,7 @@
         <v>1.368862070518329</v>
       </c>
       <c r="C142">
-        <v>0.8833552656810661</v>
+        <v>0.8833552656810659</v>
       </c>
       <c r="D142">
         <v>1.599341945603575</v>
@@ -4069,10 +4069,10 @@
         <v>1.33223813519316</v>
       </c>
       <c r="C143">
-        <v>0.8349019260623284</v>
+        <v>0.8349019260623283</v>
       </c>
       <c r="D143">
-        <v>1.303575602474664</v>
+        <v>1.303575602474665</v>
       </c>
       <c r="E143">
         <v>0.9734375767073987</v>
@@ -4092,10 +4092,10 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>1.303060391691849</v>
+        <v>1.30306039169185</v>
       </c>
       <c r="C144">
-        <v>1.089237964936503</v>
+        <v>1.089237964936502</v>
       </c>
       <c r="D144">
         <v>1.273772196289112</v>
@@ -4118,10 +4118,10 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>1.303060391691849</v>
+        <v>1.30306039169185</v>
       </c>
       <c r="C145">
-        <v>1.089237964936503</v>
+        <v>1.089237964936502</v>
       </c>
       <c r="D145">
         <v>1.273772196289112</v>
@@ -4196,7 +4196,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>1.346503528889026</v>
+        <v>1.346503528889025</v>
       </c>
       <c r="C148">
         <v>1.040824729748122</v>
@@ -4240,7 +4240,7 @@
         <v>0.926517018135053</v>
       </c>
       <c r="H149">
-        <v>0.9500669659307973</v>
+        <v>0.9500669659307972</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4257,16 +4257,16 @@
         <v>1.369101429375422</v>
       </c>
       <c r="E150">
-        <v>0.9188752097787329</v>
+        <v>0.9188752097787327</v>
       </c>
       <c r="F150">
         <v>1.307522080010797</v>
       </c>
       <c r="G150">
-        <v>0.9265170181350533</v>
+        <v>0.926517018135053</v>
       </c>
       <c r="H150">
-        <v>0.9500669659307974</v>
+        <v>0.9500669659307973</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4289,7 +4289,7 @@
         <v>1.314410125464875</v>
       </c>
       <c r="G151">
-        <v>0.9094025685829437</v>
+        <v>0.9094025685829435</v>
       </c>
       <c r="H151">
         <v>0.9373300506022834</v>
@@ -4315,7 +4315,7 @@
         <v>1.307522080010797</v>
       </c>
       <c r="G152">
-        <v>0.9265170181350532</v>
+        <v>0.926517018135053</v>
       </c>
       <c r="H152">
         <v>0.9500669659307972</v>
@@ -4381,7 +4381,7 @@
         <v>1.189281537304655</v>
       </c>
       <c r="C155">
-        <v>0.9557200179857683</v>
+        <v>0.9557200179857682</v>
       </c>
       <c r="D155">
         <v>0.996800869845023</v>
@@ -4393,7 +4393,7 @@
         <v>1.093407148652094</v>
       </c>
       <c r="G155">
-        <v>0.9296167594245844</v>
+        <v>0.9296167594245841</v>
       </c>
       <c r="H155">
         <v>0.9472469099669882</v>
@@ -4407,19 +4407,19 @@
         <v>1.189281537304655</v>
       </c>
       <c r="C156">
-        <v>0.9557200179857683</v>
+        <v>0.9557200179857682</v>
       </c>
       <c r="D156">
         <v>0.996800869845023</v>
       </c>
       <c r="E156">
-        <v>0.9585023214231421</v>
+        <v>0.958502321423142</v>
       </c>
       <c r="F156">
         <v>1.093407148652094</v>
       </c>
       <c r="G156">
-        <v>0.9296167594245844</v>
+        <v>0.9296167594245842</v>
       </c>
       <c r="H156">
         <v>0.9472469099669882</v>
@@ -4433,7 +4433,7 @@
         <v>1.170992037698563</v>
       </c>
       <c r="C157">
-        <v>1.081298598781284</v>
+        <v>1.081298598781283</v>
       </c>
       <c r="D157">
         <v>0.9156998489387289</v>
@@ -4459,7 +4459,7 @@
         <v>1.218990226522023</v>
       </c>
       <c r="C158">
-        <v>0.9903323984232523</v>
+        <v>0.9903323984232522</v>
       </c>
       <c r="D158">
         <v>1.160881004337369</v>
@@ -4474,7 +4474,7 @@
         <v>0.9803296829542614</v>
       </c>
       <c r="H158">
-        <v>0.9907878132442683</v>
+        <v>0.9907878132442682</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4485,7 +4485,7 @@
         <v>1.239482688423538</v>
       </c>
       <c r="C159">
-        <v>0.8000780613148502</v>
+        <v>0.8000780613148499</v>
       </c>
       <c r="D159">
         <v>1.280304600960761</v>
@@ -4497,10 +4497,10 @@
         <v>1.236338962498405</v>
       </c>
       <c r="G159">
-        <v>0.8854180284980031</v>
+        <v>0.885418028498003</v>
       </c>
       <c r="H159">
-        <v>0.9103093015462226</v>
+        <v>0.9103093015462225</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4511,7 +4511,7 @@
         <v>1.141475786701076</v>
       </c>
       <c r="C160">
-        <v>0.9574278444170043</v>
+        <v>0.9574278444170041</v>
       </c>
       <c r="D160">
         <v>1.041431006485854</v>
@@ -4560,13 +4560,13 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>1.071884097145306</v>
+        <v>1.071884097145307</v>
       </c>
       <c r="C162">
         <v>1.21195194034763</v>
       </c>
       <c r="D162">
-        <v>0.864227447072225</v>
+        <v>0.8642274470722249</v>
       </c>
       <c r="E162">
         <v>1.155668404860778</v>
@@ -4589,7 +4589,7 @@
         <v>1.255303036763589</v>
       </c>
       <c r="C163">
-        <v>0.8222001297586147</v>
+        <v>0.8222001297586146</v>
       </c>
       <c r="D163">
         <v>1.30199430764765</v>
@@ -4601,7 +4601,7 @@
         <v>1.268151400684942</v>
       </c>
       <c r="G163">
-        <v>0.9070596442292621</v>
+        <v>0.907059644229262</v>
       </c>
       <c r="H163">
         <v>0.9378234928711504</v>
@@ -4641,7 +4641,7 @@
         <v>1.139372443932013</v>
       </c>
       <c r="C165">
-        <v>0.9693279779612772</v>
+        <v>0.9693279779612771</v>
       </c>
       <c r="D165">
         <v>0.9964619606371857</v>
@@ -4653,7 +4653,7 @@
         <v>1.09305461435589</v>
       </c>
       <c r="G165">
-        <v>0.9477927328967689</v>
+        <v>0.947792732896769</v>
       </c>
       <c r="H165">
         <v>0.9670324400604746</v>
@@ -4667,10 +4667,10 @@
         <v>1.139372443932013</v>
       </c>
       <c r="C166">
-        <v>0.9693279779612771</v>
+        <v>0.969327977961277</v>
       </c>
       <c r="D166">
-        <v>0.9964619606371856</v>
+        <v>0.9964619606371857</v>
       </c>
       <c r="E166">
         <v>0.9731555926027466</v>
@@ -4682,7 +4682,7 @@
         <v>0.9477927328967689</v>
       </c>
       <c r="H166">
-        <v>0.9670324400604746</v>
+        <v>0.9670324400604745</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4690,7 +4690,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>1.054587700081</v>
+        <v>1.054587700080999</v>
       </c>
       <c r="C167">
         <v>1.134959308211569</v>
@@ -4716,19 +4716,19 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.9867298985694131</v>
+        <v>0.9867298985694128</v>
       </c>
       <c r="C168">
         <v>1.298340092833152</v>
       </c>
       <c r="D168">
-        <v>0.7336338215773291</v>
+        <v>0.7336338215773293</v>
       </c>
       <c r="E168">
         <v>1.232094005623707</v>
       </c>
       <c r="F168">
-        <v>0.9213239353944722</v>
+        <v>0.9213239353944723</v>
       </c>
       <c r="G168">
         <v>1.218023493479946</v>
@@ -4757,7 +4757,7 @@
         <v>1.548611379456549</v>
       </c>
       <c r="G169">
-        <v>1.05246418248315</v>
+        <v>1.052464182483149</v>
       </c>
       <c r="H169">
         <v>1.060865422767089</v>
@@ -4771,16 +4771,16 @@
         <v>1.435037081772218</v>
       </c>
       <c r="C170">
-        <v>0.7989421004600009</v>
+        <v>0.7989421004600008</v>
       </c>
       <c r="D170">
-        <v>1.704422293971864</v>
+        <v>1.704422293971865</v>
       </c>
       <c r="E170">
         <v>0.9653479614623699</v>
       </c>
       <c r="F170">
-        <v>1.539453288136813</v>
+        <v>1.539453288136814</v>
       </c>
       <c r="G170">
         <v>1.007503363505683</v>
@@ -4797,7 +4797,7 @@
         <v>1.39464833463485</v>
       </c>
       <c r="C171">
-        <v>0.9213093245628304</v>
+        <v>0.9213093245628303</v>
       </c>
       <c r="D171">
         <v>1.718735555300826</v>
@@ -4846,7 +4846,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>1.446910939173828</v>
+        <v>1.446910939173827</v>
       </c>
       <c r="C173">
         <v>0.7237649780511375</v>
@@ -4855,7 +4855,7 @@
         <v>1.718994295950403</v>
       </c>
       <c r="E173">
-        <v>0.9392650031987664</v>
+        <v>0.9392650031987663</v>
       </c>
       <c r="F173">
         <v>1.548196304041203</v>
@@ -4875,7 +4875,7 @@
         <v>1.471070254355429</v>
       </c>
       <c r="C174">
-        <v>0.6696618415842078</v>
+        <v>0.6696618415842077</v>
       </c>
       <c r="D174">
         <v>1.739284580298724</v>
@@ -4887,10 +4887,10 @@
         <v>1.544193817220309</v>
       </c>
       <c r="G174">
-        <v>0.9734205163685663</v>
+        <v>0.9734205163685662</v>
       </c>
       <c r="H174">
-        <v>0.9927812979019427</v>
+        <v>0.9927812979019424</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4913,7 +4913,7 @@
         <v>1.263579940040748</v>
       </c>
       <c r="G175">
-        <v>1.202372859662125</v>
+        <v>1.202372859662124</v>
       </c>
       <c r="H175">
         <v>1.201181562413486</v>
@@ -4924,7 +4924,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>1.378517799506158</v>
+        <v>1.378517799506157</v>
       </c>
       <c r="C176">
         <v>1.112157352102118</v>
@@ -4979,7 +4979,7 @@
         <v>1.414816487038002</v>
       </c>
       <c r="C178">
-        <v>0.9048776569096353</v>
+        <v>0.9048776569096352</v>
       </c>
       <c r="D178">
         <v>1.369860778237119</v>
@@ -4991,7 +4991,7 @@
         <v>1.33137647074199</v>
       </c>
       <c r="G178">
-        <v>0.9768766394099772</v>
+        <v>0.976876639409977</v>
       </c>
       <c r="H178">
         <v>1.001189745817829</v>
@@ -5008,7 +5008,7 @@
         <v>1.088218107833316</v>
       </c>
       <c r="D179">
-        <v>1.236054645992182</v>
+        <v>1.236054645992183</v>
       </c>
       <c r="E179">
         <v>1.096451763996288</v>
@@ -5060,7 +5060,7 @@
         <v>1.395699984499919</v>
       </c>
       <c r="D181">
-        <v>0.9508196923272598</v>
+        <v>0.9508196923272599</v>
       </c>
       <c r="E181">
         <v>1.333104941496529</v>
@@ -5072,7 +5072,7 @@
         <v>1.315955744034698</v>
       </c>
       <c r="H181">
-        <v>1.301450595116967</v>
+        <v>1.301450595116966</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5083,10 +5083,10 @@
         <v>1.175032583609198</v>
       </c>
       <c r="C182">
-        <v>1.289418552041112</v>
+        <v>1.289418552041111</v>
       </c>
       <c r="D182">
-        <v>0.8219644861439842</v>
+        <v>0.8219644861439843</v>
       </c>
       <c r="E182">
         <v>1.227369537262206</v>
@@ -5098,7 +5098,7 @@
         <v>1.211218285114328</v>
       </c>
       <c r="H182">
-        <v>1.200661183349197</v>
+        <v>1.200661183349196</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5112,7 +5112,7 @@
         <v>1.219570917000976</v>
       </c>
       <c r="D183">
-        <v>0.6852643003258392</v>
+        <v>0.6852643003258394</v>
       </c>
       <c r="E183">
         <v>1.162637214331796</v>
@@ -5138,7 +5138,7 @@
         <v>1.21190132078055</v>
       </c>
       <c r="D184">
-        <v>0.9847346090705651</v>
+        <v>0.9847346090705653</v>
       </c>
       <c r="E184">
         <v>1.186987538454971</v>
@@ -5164,7 +5164,7 @@
         <v>1.21190132078055</v>
       </c>
       <c r="D185">
-        <v>0.9847346090705651</v>
+        <v>0.9847346090705653</v>
       </c>
       <c r="E185">
         <v>1.186987538454971</v>
@@ -5173,7 +5173,7 @@
         <v>1.15590740102506</v>
       </c>
       <c r="G185">
-        <v>1.158645165523269</v>
+        <v>1.158645165523268</v>
       </c>
       <c r="H185">
         <v>1.16247013328515</v>
@@ -5184,7 +5184,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>1.150644482481302</v>
+        <v>1.150644482481303</v>
       </c>
       <c r="C186">
         <v>1.284045301886267</v>
@@ -5228,7 +5228,7 @@
         <v>1.101596870940095</v>
       </c>
       <c r="H187">
-        <v>1.106031061555568</v>
+        <v>1.106031061555567</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5268,7 +5268,7 @@
         <v>1.294422106314877</v>
       </c>
       <c r="D189">
-        <v>0.7244015036808727</v>
+        <v>0.7244015036808729</v>
       </c>
       <c r="E189">
         <v>1.23121896383916</v>
@@ -5294,7 +5294,7 @@
         <v>1.294422106314877</v>
       </c>
       <c r="D190">
-        <v>0.7244015036808727</v>
+        <v>0.7244015036808729</v>
       </c>
       <c r="E190">
         <v>1.23121896383916</v>
@@ -5329,7 +5329,7 @@
         <v>1.168057811860618</v>
       </c>
       <c r="G191">
-        <v>1.165055948575085</v>
+        <v>1.165055948575084</v>
       </c>
       <c r="H191">
         <v>1.166871342603376</v>
@@ -5369,7 +5369,7 @@
         <v>1.364348149888311</v>
       </c>
       <c r="C193">
-        <v>0.8906546401598848</v>
+        <v>0.8906546401598847</v>
       </c>
       <c r="D193">
         <v>1.675391288048441</v>
@@ -5395,22 +5395,22 @@
         <v>1.394667909652504</v>
       </c>
       <c r="C194">
-        <v>0.7170167028922154</v>
+        <v>0.7170167028922152</v>
       </c>
       <c r="D194">
-        <v>1.710129204143475</v>
+        <v>1.710129204143476</v>
       </c>
       <c r="E194">
         <v>0.9205677175497631</v>
       </c>
       <c r="F194">
-        <v>1.538098040434344</v>
+        <v>1.538098040434345</v>
       </c>
       <c r="G194">
         <v>0.9782082803576628</v>
       </c>
       <c r="H194">
-        <v>0.9998231901529046</v>
+        <v>0.9998231901529043</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1.047861819964388</v>
       </c>
       <c r="H195">
-        <v>1.057107392386138</v>
+        <v>1.057107392386139</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5447,7 +5447,7 @@
         <v>1.358241932629153</v>
       </c>
       <c r="C196">
-        <v>0.9005518966701257</v>
+        <v>0.9005518966701256</v>
       </c>
       <c r="D196">
         <v>1.449251315346058</v>
@@ -5456,7 +5456,7 @@
         <v>0.9875646742937042</v>
       </c>
       <c r="F196">
-        <v>1.406938510853498</v>
+        <v>1.406938510853499</v>
       </c>
       <c r="G196">
         <v>0.9867088195114418</v>
@@ -5485,7 +5485,7 @@
         <v>1.397149899366032</v>
       </c>
       <c r="G197">
-        <v>0.9848121173150917</v>
+        <v>0.9848121173150916</v>
       </c>
       <c r="H197">
         <v>1.004270709084227</v>
@@ -5534,13 +5534,13 @@
         <v>1.080547181238946</v>
       </c>
       <c r="F199">
-        <v>1.323361826469083</v>
+        <v>1.323361826469084</v>
       </c>
       <c r="G199">
         <v>1.068083074522491</v>
       </c>
       <c r="H199">
-        <v>1.078620999441834</v>
+        <v>1.078620999441833</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5586,7 +5586,7 @@
         <v>1.167999253577094</v>
       </c>
       <c r="F201">
-        <v>1.285653448477669</v>
+        <v>1.28565344847767</v>
       </c>
       <c r="G201">
         <v>1.161436943775874</v>
@@ -5606,7 +5606,7 @@
         <v>1.188911354894982</v>
       </c>
       <c r="D202">
-        <v>1.062520545866914</v>
+        <v>1.062520545866915</v>
       </c>
       <c r="E202">
         <v>1.196316120835036</v>
@@ -5615,10 +5615,10 @@
         <v>1.12736322742062</v>
       </c>
       <c r="G202">
-        <v>1.185806577824382</v>
+        <v>1.185806577824381</v>
       </c>
       <c r="H202">
-        <v>1.184308989475372</v>
+        <v>1.184308989475371</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5641,7 +5641,7 @@
         <v>1.334025133130603</v>
       </c>
       <c r="G203">
-        <v>1.095651819376204</v>
+        <v>1.095651819376203</v>
       </c>
       <c r="H203">
         <v>1.104928448167392</v>
@@ -5704,10 +5704,10 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.8804260560778616</v>
+        <v>0.8804260560778617</v>
       </c>
       <c r="C206">
-        <v>0.7194626052964713</v>
+        <v>0.7194626052964712</v>
       </c>
       <c r="D206">
         <v>1.313053036583298</v>
@@ -5719,7 +5719,7 @@
         <v>1.107100727163361</v>
       </c>
       <c r="G206">
-        <v>0.8144265612698949</v>
+        <v>0.814426561269895</v>
       </c>
       <c r="H206">
         <v>0.8108645306982248</v>
@@ -5730,7 +5730,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.8944549773798817</v>
+        <v>0.8944549773798818</v>
       </c>
       <c r="C207">
         <v>0.6658544495893934</v>
@@ -5745,10 +5745,10 @@
         <v>1.007024554003531</v>
       </c>
       <c r="G207">
-        <v>0.7419196450679244</v>
+        <v>0.7419196450679242</v>
       </c>
       <c r="H207">
-        <v>0.7456240445887994</v>
+        <v>0.7456240445887995</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5756,7 +5756,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.8944549773798817</v>
+        <v>0.8944549773798818</v>
       </c>
       <c r="C208">
         <v>0.6658544495893933</v>
@@ -5774,7 +5774,7 @@
         <v>0.7419196450679242</v>
       </c>
       <c r="H208">
-        <v>0.7456240445887994</v>
+        <v>0.7456240445887996</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5785,22 +5785,22 @@
         <v>0.8971992130381921</v>
       </c>
       <c r="C209">
-        <v>0.6095375118317792</v>
+        <v>0.6095375118317791</v>
       </c>
       <c r="D209">
         <v>1.331141951324812</v>
       </c>
       <c r="E209">
-        <v>0.6827189028159739</v>
+        <v>0.682718902815974</v>
       </c>
       <c r="F209">
         <v>1.12078755921603</v>
       </c>
       <c r="G209">
-        <v>0.7736641024261461</v>
+        <v>0.7736641024261462</v>
       </c>
       <c r="H209">
-        <v>0.773684031154109</v>
+        <v>0.7736840311541089</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>0.7419196450679242</v>
       </c>
       <c r="H210">
-        <v>0.7456240445887995</v>
+        <v>0.7456240445887996</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5846,7 +5846,7 @@
         <v>0.8619927834668432</v>
       </c>
       <c r="F211">
-        <v>0.9387114888060535</v>
+        <v>0.9387114888060537</v>
       </c>
       <c r="G211">
         <v>0.8643904676207325</v>
@@ -5863,19 +5863,19 @@
         <v>0.8760498508773521</v>
       </c>
       <c r="C212">
-        <v>0.9489932378123671</v>
+        <v>0.948993237812367</v>
       </c>
       <c r="D212">
         <v>1.085677180214053</v>
       </c>
       <c r="E212">
-        <v>0.9293135379979816</v>
+        <v>0.9293135379979818</v>
       </c>
       <c r="F212">
         <v>0.9631584794879364</v>
       </c>
       <c r="G212">
-        <v>0.9315974656342662</v>
+        <v>0.9315974656342663</v>
       </c>
       <c r="H212">
         <v>0.9241605589066856</v>
@@ -5901,10 +5901,10 @@
         <v>1.007024554003532</v>
       </c>
       <c r="G213">
-        <v>0.7419196450679244</v>
+        <v>0.7419196450679243</v>
       </c>
       <c r="H213">
-        <v>0.7456240445887995</v>
+        <v>0.7456240445887996</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5953,7 +5953,7 @@
         <v>0.8833553007108405</v>
       </c>
       <c r="G215">
-        <v>0.7813793429276256</v>
+        <v>0.7813793429276257</v>
       </c>
       <c r="H215">
         <v>0.783568698806738</v>
@@ -5964,7 +5964,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0.86688764805711</v>
+        <v>0.8668876480571103</v>
       </c>
       <c r="C216">
         <v>0.7779227844628825</v>
@@ -5990,16 +5990,16 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.835385530230217</v>
+        <v>0.8353855302302171</v>
       </c>
       <c r="C217">
-        <v>0.8125303138706489</v>
+        <v>0.8125303138706488</v>
       </c>
       <c r="D217">
         <v>0.9140194217220676</v>
       </c>
       <c r="E217">
-        <v>0.800931256679102</v>
+        <v>0.8009312566791021</v>
       </c>
       <c r="F217">
         <v>0.8358257333909137</v>
@@ -6016,16 +6016,16 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0.8179284645070419</v>
+        <v>0.817928464507042</v>
       </c>
       <c r="C218">
-        <v>0.969326676255463</v>
+        <v>0.9693266762554631</v>
       </c>
       <c r="D218">
         <v>0.8378043284833794</v>
       </c>
       <c r="E218">
-        <v>0.9341806331388338</v>
+        <v>0.9341806331388337</v>
       </c>
       <c r="F218">
         <v>0.7930059510763433</v>
@@ -6048,16 +6048,16 @@
         <v>0.9243273475813081</v>
       </c>
       <c r="D219">
-        <v>0.9974761789996252</v>
+        <v>0.9974761789996254</v>
       </c>
       <c r="E219">
-        <v>0.9050590234172652</v>
+        <v>0.9050590234172653</v>
       </c>
       <c r="F219">
-        <v>0.926610429539609</v>
+        <v>0.9266104295396088</v>
       </c>
       <c r="G219">
-        <v>0.903126613900967</v>
+        <v>0.9031266139009672</v>
       </c>
       <c r="H219">
         <v>0.9009241510526733</v>
@@ -6071,7 +6071,7 @@
         <v>0.8481818895547868</v>
       </c>
       <c r="C220">
-        <v>0.9767208918712765</v>
+        <v>0.9767208918712764</v>
       </c>
       <c r="D220">
         <v>1.012093820884059</v>
@@ -6109,10 +6109,10 @@
         <v>0.8790897593788863</v>
       </c>
       <c r="G221">
-        <v>1.046145077707578</v>
+        <v>1.046145077707579</v>
       </c>
       <c r="H221">
-        <v>1.038003431085195</v>
+        <v>1.038003431085194</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6126,7 +6126,7 @@
         <v>0.9243273475813081</v>
       </c>
       <c r="D222">
-        <v>0.9974761789996253</v>
+        <v>0.9974761789996254</v>
       </c>
       <c r="E222">
         <v>0.9050590234172653</v>
@@ -6178,13 +6178,13 @@
         <v>1.041651803637987</v>
       </c>
       <c r="D224">
-        <v>0.5811518104766211</v>
+        <v>0.5811518104766213</v>
       </c>
       <c r="E224">
-        <v>0.9927496897293101</v>
+        <v>0.9927496897293102</v>
       </c>
       <c r="F224">
-        <v>0.7784293209533373</v>
+        <v>0.7784293209533371</v>
       </c>
       <c r="G224">
         <v>0.9782755653994393</v>
@@ -6204,13 +6204,13 @@
         <v>0.7426698716404492</v>
       </c>
       <c r="D225">
-        <v>0.7210481308790332</v>
+        <v>0.7210481308790333</v>
       </c>
       <c r="E225">
         <v>0.7415738601999565</v>
       </c>
       <c r="F225">
-        <v>0.8579198834500513</v>
+        <v>0.8579198834500512</v>
       </c>
       <c r="G225">
         <v>0.7251047791894774</v>
@@ -6227,22 +6227,22 @@
         <v>0.9017281465140832</v>
       </c>
       <c r="C226">
-        <v>0.8911908703047076</v>
+        <v>0.8911908703047073</v>
       </c>
       <c r="D226">
-        <v>0.6490667713676952</v>
+        <v>0.6490667713676953</v>
       </c>
       <c r="E226">
         <v>0.8661106190190615</v>
       </c>
       <c r="F226">
-        <v>0.8229271729261516</v>
+        <v>0.8229271729261514</v>
       </c>
       <c r="G226">
         <v>0.8470843041686434</v>
       </c>
       <c r="H226">
-        <v>0.8505839075118294</v>
+        <v>0.8505839075118296</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6259,7 +6259,7 @@
         <v>0.8630729710000064</v>
       </c>
       <c r="E227">
-        <v>0.6673461815677316</v>
+        <v>0.6673461815677317</v>
       </c>
       <c r="F227">
         <v>0.8860338216824505</v>
@@ -6285,13 +6285,13 @@
         <v>0.4982527518247478</v>
       </c>
       <c r="E228">
-        <v>0.9734695255607588</v>
+        <v>0.9734695255607589</v>
       </c>
       <c r="F228">
         <v>0.6720452114407115</v>
       </c>
       <c r="G228">
-        <v>0.9566084764220847</v>
+        <v>0.9566084764220849</v>
       </c>
       <c r="H228">
         <v>0.9486192034883668</v>
@@ -6305,7 +6305,7 @@
         <v>0.8481818895547868</v>
       </c>
       <c r="C229">
-        <v>0.9767208918712765</v>
+        <v>0.9767208918712764</v>
       </c>
       <c r="D229">
         <v>1.012093820884059</v>
@@ -6317,10 +6317,10 @@
         <v>0.9175554479705945</v>
       </c>
       <c r="G229">
-        <v>0.9496984132399343</v>
+        <v>0.9496984132399344</v>
       </c>
       <c r="H229">
-        <v>0.9427033987702141</v>
+        <v>0.942703398770214</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6328,7 +6328,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>0.8659672987945561</v>
+        <v>0.8659672987945564</v>
       </c>
       <c r="C230">
         <v>0.9322961807049225</v>
@@ -6360,13 +6360,13 @@
         <v>1.108637044353513</v>
       </c>
       <c r="D231">
-        <v>0.9936661153885005</v>
+        <v>0.9936661153885006</v>
       </c>
       <c r="E231">
         <v>1.064340051552197</v>
       </c>
       <c r="F231">
-        <v>0.9032906893370944</v>
+        <v>0.9032906893370943</v>
       </c>
       <c r="G231">
         <v>1.058357393526668</v>
@@ -6389,16 +6389,16 @@
         <v>0.9265933442649167</v>
       </c>
       <c r="E232">
-        <v>0.993142128985074</v>
+        <v>0.9931421289850739</v>
       </c>
       <c r="F232">
-        <v>0.8465166628409109</v>
+        <v>0.8465166628409108</v>
       </c>
       <c r="G232">
         <v>0.986702305540375</v>
       </c>
       <c r="H232">
-        <v>0.9752681998221936</v>
+        <v>0.9752681998221935</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6415,7 +6415,7 @@
         <v>0.7652849573223319</v>
       </c>
       <c r="E233">
-        <v>1.158898399672395</v>
+        <v>1.158898399672394</v>
       </c>
       <c r="F233">
         <v>0.7420070584441814</v>
@@ -6432,7 +6432,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>0.7769349057433346</v>
+        <v>0.7769349057433347</v>
       </c>
       <c r="C234">
         <v>1.223096496548092</v>
@@ -6444,7 +6444,7 @@
         <v>1.158710413113522</v>
       </c>
       <c r="F234">
-        <v>0.8568097147472645</v>
+        <v>0.8568097147472644</v>
       </c>
       <c r="G234">
         <v>1.153479630156209</v>
@@ -6458,7 +6458,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>0.7769349057433347</v>
+        <v>0.7769349057433348</v>
       </c>
       <c r="C235">
         <v>1.223096496548092</v>
@@ -6470,7 +6470,7 @@
         <v>1.158710413113522</v>
       </c>
       <c r="F235">
-        <v>0.8568097147472645</v>
+        <v>0.8568097147472644</v>
       </c>
       <c r="G235">
         <v>1.153479630156209</v>
@@ -6487,13 +6487,13 @@
         <v>0.7640257747735855</v>
       </c>
       <c r="C236">
-        <v>1.264710049208007</v>
+        <v>1.264710049208006</v>
       </c>
       <c r="D236">
         <v>0.7786095069138187</v>
       </c>
       <c r="E236">
-        <v>1.196519279569021</v>
+        <v>1.19651927956902</v>
       </c>
       <c r="F236">
         <v>0.7976109983871338</v>
@@ -6525,7 +6525,7 @@
         <v>0.8417164520553727</v>
       </c>
       <c r="G237">
-        <v>0.8503303957487298</v>
+        <v>0.8503303957487299</v>
       </c>
       <c r="H237">
         <v>0.8494554725908093</v>
@@ -6539,13 +6539,13 @@
         <v>0.9205044781481359</v>
       </c>
       <c r="C238">
-        <v>0.7461884437519853</v>
+        <v>0.7461884437519852</v>
       </c>
       <c r="D238">
         <v>0.853109146760109</v>
       </c>
       <c r="E238">
-        <v>0.7429688860930311</v>
+        <v>0.7429688860930312</v>
       </c>
       <c r="F238">
         <v>0.8793038194342047</v>
@@ -6580,7 +6580,7 @@
         <v>1.005671625559733</v>
       </c>
       <c r="H239">
-        <v>0.9943083797002001</v>
+        <v>0.9943083797001999</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6591,22 +6591,22 @@
         <v>0.8330254670272278</v>
       </c>
       <c r="C240">
-        <v>0.9990904183690218</v>
+        <v>0.9990904183690217</v>
       </c>
       <c r="D240">
-        <v>0.5030954020069288</v>
+        <v>0.5030954020069289</v>
       </c>
       <c r="E240">
-        <v>0.9521582824895963</v>
+        <v>0.9521582824895964</v>
       </c>
       <c r="F240">
         <v>0.6903781902372509</v>
       </c>
       <c r="G240">
-        <v>0.9350091007759577</v>
+        <v>0.9350091007759576</v>
       </c>
       <c r="H240">
-        <v>0.9277546070262482</v>
+        <v>0.9277546070262483</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6629,10 +6629,10 @@
         <v>0.6541446701446267</v>
       </c>
       <c r="G241">
-        <v>0.9830009204816544</v>
+        <v>0.9830009204816545</v>
       </c>
       <c r="H241">
-        <v>0.9735156871097194</v>
+        <v>0.9735156871097193</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6655,10 +6655,10 @@
         <v>0.8790897593788863</v>
       </c>
       <c r="G242">
-        <v>1.046145077707578</v>
+        <v>1.046145077707579</v>
       </c>
       <c r="H242">
-        <v>1.038003431085195</v>
+        <v>1.038003431085194</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6672,7 +6672,7 @@
         <v>1.1345686302242</v>
       </c>
       <c r="D243">
-        <v>0.820331510590083</v>
+        <v>0.8203315105900831</v>
       </c>
       <c r="E243">
         <v>1.088252946122412</v>
@@ -6692,13 +6692,13 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>0.8373270303248782</v>
+        <v>0.8373270303248783</v>
       </c>
       <c r="C244">
         <v>1.099324737498445</v>
       </c>
       <c r="D244">
-        <v>0.8658568125628797</v>
+        <v>0.8658568125628798</v>
       </c>
       <c r="E244">
         <v>1.054675568332956</v>
@@ -6707,10 +6707,10 @@
         <v>0.8790897593788866</v>
       </c>
       <c r="G244">
-        <v>1.046145077707578</v>
+        <v>1.046145077707579</v>
       </c>
       <c r="H244">
-        <v>1.038003431085195</v>
+        <v>1.038003431085194</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6724,7 +6724,7 @@
         <v>1.281223453082231</v>
       </c>
       <c r="D245">
-        <v>0.7269270561305282</v>
+        <v>0.7269270561305283</v>
       </c>
       <c r="E245">
         <v>1.211943335243744</v>
@@ -6744,7 +6744,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>0.7531921206056752</v>
+        <v>0.7531921206056753</v>
       </c>
       <c r="C246">
         <v>1.291950301812811</v>
@@ -6756,7 +6756,7 @@
         <v>1.221087224594131</v>
       </c>
       <c r="F246">
-        <v>0.808940734121872</v>
+        <v>0.8089407341218718</v>
       </c>
       <c r="G246">
         <v>1.210416299030556</v>
@@ -6770,7 +6770,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>0.7531921206056752</v>
+        <v>0.7531921206056755</v>
       </c>
       <c r="C247">
         <v>1.291950301812811</v>
@@ -6782,7 +6782,7 @@
         <v>1.221087224594131</v>
       </c>
       <c r="F247">
-        <v>0.808940734121872</v>
+        <v>0.8089407341218718</v>
       </c>
       <c r="G247">
         <v>1.210416299030556</v>
@@ -6808,7 +6808,7 @@
         <v>1.121330452582444</v>
       </c>
       <c r="F248">
-        <v>0.8249579810918912</v>
+        <v>0.8249579810918913</v>
       </c>
       <c r="G248">
         <v>1.11420296657559</v>
@@ -6822,10 +6822,10 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0.8055735104242306</v>
+        <v>0.8055735104242308</v>
       </c>
       <c r="C249">
-        <v>1.059177092602272</v>
+        <v>1.059177092602271</v>
       </c>
       <c r="D249">
         <v>0.4479119780360364</v>
@@ -6837,7 +6837,7 @@
         <v>0.6568517842218963</v>
       </c>
       <c r="G249">
-        <v>0.990572500408384</v>
+        <v>0.9905725004083842</v>
       </c>
       <c r="H249">
         <v>0.9810310548426754</v>
@@ -6851,7 +6851,7 @@
         <v>1.085310428892241</v>
       </c>
       <c r="C250">
-        <v>1.17508833829751</v>
+        <v>1.175088338297509</v>
       </c>
       <c r="D250">
         <v>1.046523623147462</v>
@@ -6877,7 +6877,7 @@
         <v>1.09871109714331</v>
       </c>
       <c r="C251">
-        <v>1.24181250489707</v>
+        <v>1.241812504897069</v>
       </c>
       <c r="D251">
         <v>1.081479951646362</v>
@@ -6938,7 +6938,7 @@
         <v>1.281685952962386</v>
       </c>
       <c r="F253">
-        <v>0.9311527905021247</v>
+        <v>0.9311527905021248</v>
       </c>
       <c r="G253">
         <v>1.263384889629477</v>
@@ -6958,7 +6958,7 @@
         <v>1.391043307755184</v>
       </c>
       <c r="D254">
-        <v>0.87141818175953</v>
+        <v>0.8714181817595301</v>
       </c>
       <c r="E254">
         <v>1.322649238666582</v>
@@ -6990,7 +6990,7 @@
         <v>1.281685952962386</v>
       </c>
       <c r="F255">
-        <v>0.9311527905021247</v>
+        <v>0.9311527905021248</v>
       </c>
       <c r="G255">
         <v>1.263384889629477</v>
@@ -7004,10 +7004,10 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>0.849552207801616</v>
+        <v>0.8495522078016161</v>
       </c>
       <c r="C256">
-        <v>1.307812984936037</v>
+        <v>1.307812984936036</v>
       </c>
       <c r="D256">
         <v>0.8038715672645746</v>
@@ -7016,7 +7016,7 @@
         <v>1.239777988497329</v>
       </c>
       <c r="F256">
-        <v>0.8798012294513611</v>
+        <v>0.8798012294513614</v>
       </c>
       <c r="G256">
         <v>1.229302480276805</v>
@@ -7042,7 +7042,7 @@
         <v>1.160518238516737</v>
       </c>
       <c r="F257">
-        <v>0.7409984816072398</v>
+        <v>0.7409984816072399</v>
       </c>
       <c r="G257">
         <v>1.142543247696492</v>
@@ -7082,7 +7082,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>0.89460030415937</v>
+        <v>0.8946003041593701</v>
       </c>
       <c r="C259">
         <v>1.185538402761978</v>
@@ -7108,22 +7108,22 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>0.509548800748677</v>
+        <v>0.5095488007486771</v>
       </c>
       <c r="C260">
         <v>0.831739089542977</v>
       </c>
       <c r="D260">
-        <v>0.4111032473347889</v>
+        <v>0.4111032473347888</v>
       </c>
       <c r="E260">
         <v>0.7883823181131315</v>
       </c>
       <c r="F260">
-        <v>0.4681145372297417</v>
+        <v>0.4681145372297416</v>
       </c>
       <c r="G260">
-        <v>0.7785704110083952</v>
+        <v>0.7785704110083951</v>
       </c>
       <c r="H260">
         <v>0.77303717439354</v>
@@ -7137,7 +7137,7 @@
         <v>0.3187104153715982</v>
       </c>
       <c r="C261">
-        <v>0.8437737200110229</v>
+        <v>0.843773720011023</v>
       </c>
       <c r="D261">
         <v>0.2569047873855119</v>
@@ -7149,7 +7149,7 @@
         <v>0.2893241320616493</v>
       </c>
       <c r="G261">
-        <v>0.784912990844459</v>
+        <v>0.7849129908444591</v>
       </c>
       <c r="H261">
         <v>0.7721111778213644</v>
@@ -7163,7 +7163,7 @@
         <v>0.4919172296237261</v>
       </c>
       <c r="C262">
-        <v>0.8138474474642656</v>
+        <v>0.8138474474642654</v>
       </c>
       <c r="D262">
         <v>0.4397445260221876</v>
@@ -7172,10 +7172,10 @@
         <v>0.7702864109937604</v>
       </c>
       <c r="F262">
-        <v>0.4679087726285483</v>
+        <v>0.4679087726285484</v>
       </c>
       <c r="G262">
-        <v>0.7628582440258888</v>
+        <v>0.7628582440258885</v>
       </c>
       <c r="H262">
         <v>0.7560923112694188</v>
@@ -7189,10 +7189,10 @@
         <v>0.4548725245586733</v>
       </c>
       <c r="C263">
-        <v>0.9480624371147784</v>
+        <v>0.9480624371147783</v>
       </c>
       <c r="D263">
-        <v>0.4066613800080261</v>
+        <v>0.4066613800080262</v>
       </c>
       <c r="E263">
         <v>0.8871241211689507</v>
@@ -7204,7 +7204,7 @@
         <v>0.882631028597745</v>
       </c>
       <c r="H263">
-        <v>0.8690857259606116</v>
+        <v>0.8690857259606114</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7221,7 +7221,7 @@
         <v>0.3523700369316162</v>
       </c>
       <c r="E264">
-        <v>0.852577760277504</v>
+        <v>0.8525777602775042</v>
       </c>
       <c r="F264">
         <v>0.3989518436151622</v>
@@ -7230,7 +7230,7 @@
         <v>0.8485395121649915</v>
       </c>
       <c r="H264">
-        <v>0.8355062190092585</v>
+        <v>0.8355062190092586</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7250,7 +7250,7 @@
         <v>0.852577760277504</v>
       </c>
       <c r="F265">
-        <v>0.3989518436151621</v>
+        <v>0.3989518436151622</v>
       </c>
       <c r="G265">
         <v>0.8485395121649913</v>
@@ -7282,7 +7282,7 @@
         <v>1.003434900958495</v>
       </c>
       <c r="H266">
-        <v>0.9900924989324519</v>
+        <v>0.9900924989324518</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7299,7 +7299,7 @@
         <v>0.3523700369316162</v>
       </c>
       <c r="E267">
-        <v>0.852577760277504</v>
+        <v>0.8525777602775042</v>
       </c>
       <c r="F267">
         <v>0.3989518436151622</v>
@@ -7325,7 +7325,7 @@
         <v>0.2569047873855119</v>
       </c>
       <c r="E268">
-        <v>0.7884932266728193</v>
+        <v>0.7884932266728192</v>
       </c>
       <c r="F268">
         <v>0.2893241320616493</v>
@@ -7334,7 +7334,7 @@
         <v>0.784912990844459</v>
       </c>
       <c r="H268">
-        <v>0.7721111778213644</v>
+        <v>0.7721111778213645</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7357,7 +7357,7 @@
         <v>0.2893241320616494</v>
       </c>
       <c r="G269">
-        <v>0.784912990844459</v>
+        <v>0.7849129908444591</v>
       </c>
       <c r="H269">
         <v>0.7721111778213644</v>
@@ -7374,7 +7374,7 @@
         <v>0.9840051861816995</v>
       </c>
       <c r="D270">
-        <v>0.3223063744413952</v>
+        <v>0.3223063744413953</v>
       </c>
       <c r="E270">
         <v>0.9214463207752723</v>
@@ -7383,7 +7383,7 @@
         <v>0.3008135266194772</v>
       </c>
       <c r="G270">
-        <v>0.9159298277801656</v>
+        <v>0.9159298277801655</v>
       </c>
       <c r="H270">
         <v>0.9008763085168094</v>
@@ -7397,7 +7397,7 @@
         <v>0.3447118090787352</v>
       </c>
       <c r="C271">
-        <v>0.846568849614397</v>
+        <v>0.8465688496143969</v>
       </c>
       <c r="D271">
         <v>0.1546278254261444</v>
@@ -7455,16 +7455,16 @@
         <v>0.3054678791728733</v>
       </c>
       <c r="E273">
-        <v>0.9569884579559838</v>
+        <v>0.9569884579559836</v>
       </c>
       <c r="F273">
-        <v>0.3089025924499338</v>
+        <v>0.3089025924499337</v>
       </c>
       <c r="G273">
         <v>0.9514794911919009</v>
       </c>
       <c r="H273">
-        <v>0.9356844279775038</v>
+        <v>0.9356844279775037</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7507,13 +7507,13 @@
         <v>0.569918030282206</v>
       </c>
       <c r="E275">
-        <v>0.6409414312554651</v>
+        <v>0.6409414312554652</v>
       </c>
       <c r="F275">
         <v>0.5358705002355713</v>
       </c>
       <c r="G275">
-        <v>0.6413453102629675</v>
+        <v>0.6413453102629674</v>
       </c>
       <c r="H275">
         <v>0.6363751863245698</v>
@@ -7539,10 +7539,10 @@
         <v>0.3249749874692948</v>
       </c>
       <c r="G276">
-        <v>0.6629393071073123</v>
+        <v>0.6629393071073124</v>
       </c>
       <c r="H276">
-        <v>0.6561966236687441</v>
+        <v>0.656196623668744</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7553,13 +7553,13 @@
         <v>0.555263714323282</v>
       </c>
       <c r="C277">
-        <v>0.9561766025410922</v>
+        <v>0.956176602541092</v>
       </c>
       <c r="D277">
-        <v>0.4699012358462142</v>
+        <v>0.4699012358462143</v>
       </c>
       <c r="E277">
-        <v>0.9078092815716885</v>
+        <v>0.9078092815716888</v>
       </c>
       <c r="F277">
         <v>0.5353081543541617</v>
@@ -7568,7 +7568,7 @@
         <v>0.9005769858567718</v>
       </c>
       <c r="H277">
-        <v>0.8897757053654805</v>
+        <v>0.8897757053654803</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7588,7 +7588,7 @@
         <v>1.07703895185639</v>
       </c>
       <c r="F278">
-        <v>0.6907505413280068</v>
+        <v>0.6907505413280071</v>
       </c>
       <c r="G278">
         <v>1.066080754067381</v>
@@ -7602,7 +7602,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>0.7518259948556544</v>
+        <v>0.7518259948556545</v>
       </c>
       <c r="C279">
         <v>1.069434313725305</v>
@@ -7628,7 +7628,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>0.7518259948556544</v>
+        <v>0.7518259948556545</v>
       </c>
       <c r="C280">
         <v>1.069434313725305</v>
@@ -7646,7 +7646,7 @@
         <v>1.005819715140089</v>
       </c>
       <c r="H280">
-        <v>0.998196109490637</v>
+        <v>0.9981961094906372</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7657,7 +7657,7 @@
         <v>0.3801478846681848</v>
       </c>
       <c r="C281">
-        <v>0.7693419215606271</v>
+        <v>0.7693419215606269</v>
       </c>
       <c r="D281">
         <v>0.1123844002870823</v>
@@ -7666,7 +7666,7 @@
         <v>0.7316250945440897</v>
       </c>
       <c r="F281">
-        <v>0.2813080996469888</v>
+        <v>0.2813080996469887</v>
       </c>
       <c r="G281">
         <v>0.7198286513101561</v>
@@ -7680,7 +7680,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>0.3511680967632601</v>
+        <v>0.35116809676326</v>
       </c>
       <c r="C282">
         <v>0.7048653098210402</v>
@@ -7698,7 +7698,7 @@
         <v>0.6621634707232847</v>
       </c>
       <c r="H282">
-        <v>0.6543261035946755</v>
+        <v>0.6543261035946754</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7706,7 +7706,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>0.3511680967632601</v>
+        <v>0.35116809676326</v>
       </c>
       <c r="C283">
         <v>0.7048653098210403</v>
@@ -7732,7 +7732,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>0.3511680967632601</v>
+        <v>0.35116809676326</v>
       </c>
       <c r="C284">
         <v>0.7048653098210402</v>
@@ -7747,7 +7747,7 @@
         <v>0.2998038512726432</v>
       </c>
       <c r="G284">
-        <v>0.6621634707232849</v>
+        <v>0.6621634707232847</v>
       </c>
       <c r="H284">
         <v>0.6543261035946754</v>
@@ -7770,13 +7770,13 @@
         <v>0.6731596868459122</v>
       </c>
       <c r="F285">
-        <v>0.3249749874692948</v>
+        <v>0.3249749874692947</v>
       </c>
       <c r="G285">
         <v>0.6629393071073123</v>
       </c>
       <c r="H285">
-        <v>0.6561966236687441</v>
+        <v>0.656196623668744</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7842,10 +7842,10 @@
         <v>1.119313286524986</v>
       </c>
       <c r="D288">
-        <v>0.5255053266454778</v>
+        <v>0.5255053266454779</v>
       </c>
       <c r="E288">
-        <v>1.051359849989801</v>
+        <v>1.0513598499898</v>
       </c>
       <c r="F288">
         <v>0.5846923099107546</v>
@@ -7871,10 +7871,10 @@
         <v>0.6398028779159464</v>
       </c>
       <c r="E289">
-        <v>1.175377036375286</v>
+        <v>1.175377036375285</v>
       </c>
       <c r="F289">
-        <v>0.8503621348313321</v>
+        <v>0.8503621348313322</v>
       </c>
       <c r="G289">
         <v>1.161383695755916</v>
@@ -7917,7 +7917,7 @@
         <v>0.4858012677890224</v>
       </c>
       <c r="C291">
-        <v>1.078687910916926</v>
+        <v>1.078687910916925</v>
       </c>
       <c r="D291">
         <v>0.4713155390774245</v>
@@ -7932,7 +7932,7 @@
         <v>1.004607167410815</v>
       </c>
       <c r="H291">
-        <v>0.9910002698562552</v>
+        <v>0.9910002698562553</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7966,7 +7966,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>0.6031214066653438</v>
+        <v>0.6031214066653436</v>
       </c>
       <c r="C293">
         <v>1.134210059066037</v>
@@ -7992,19 +7992,19 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>0.5781284581803321</v>
+        <v>0.5781284581803322</v>
       </c>
       <c r="C294">
         <v>1.171893981020176</v>
       </c>
       <c r="D294">
-        <v>0.4287089714398849</v>
+        <v>0.428708971439885</v>
       </c>
       <c r="E294">
         <v>1.103821591271361</v>
       </c>
       <c r="F294">
-        <v>0.5818763838290529</v>
+        <v>0.581876383829053</v>
       </c>
       <c r="G294">
         <v>1.089530367793236</v>
@@ -8021,22 +8021,22 @@
         <v>0.7791546412653062</v>
       </c>
       <c r="C295">
-        <v>0.8188817457944199</v>
+        <v>0.8188817457944197</v>
       </c>
       <c r="D295">
-        <v>0.8752613499451456</v>
+        <v>0.8752613499451457</v>
       </c>
       <c r="E295">
-        <v>0.8076613905427107</v>
+        <v>0.8076613905427106</v>
       </c>
       <c r="F295">
-        <v>0.8283639907887191</v>
+        <v>0.8283639907887193</v>
       </c>
       <c r="G295">
-        <v>0.8101733914294214</v>
+        <v>0.8101733914294212</v>
       </c>
       <c r="H295">
-        <v>0.8117804332779219</v>
+        <v>0.8117804332779218</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8053,16 +8053,16 @@
         <v>0.9625550011795068</v>
       </c>
       <c r="E296">
-        <v>0.8411412528820733</v>
+        <v>0.8411412528820732</v>
       </c>
       <c r="F296">
-        <v>0.894317909121183</v>
+        <v>0.8943179091211831</v>
       </c>
       <c r="G296">
         <v>0.8494593605232718</v>
       </c>
       <c r="H296">
-        <v>0.8479250380635924</v>
+        <v>0.8479250380635922</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8070,13 +8070,13 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>0.7517873093809606</v>
+        <v>0.7517873093809605</v>
       </c>
       <c r="C297">
-        <v>1.048056470442559</v>
+        <v>1.048056470442558</v>
       </c>
       <c r="D297">
-        <v>0.8392625264274512</v>
+        <v>0.8392625264274515</v>
       </c>
       <c r="E297">
         <v>1.002477654917007</v>
@@ -8085,7 +8085,7 @@
         <v>0.7977854862433041</v>
       </c>
       <c r="G297">
-        <v>0.9999696635778813</v>
+        <v>0.9999696635778812</v>
       </c>
       <c r="H297">
         <v>0.9901376393274683</v>
@@ -8096,25 +8096,25 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>0.7351970719136196</v>
+        <v>0.7351970719136195</v>
       </c>
       <c r="C298">
-        <v>0.8224813518947964</v>
+        <v>0.8224813518947961</v>
       </c>
       <c r="D298">
-        <v>0.9031204255655535</v>
+        <v>0.9031204255655537</v>
       </c>
       <c r="E298">
-        <v>0.8040377511634225</v>
+        <v>0.8040377511634224</v>
       </c>
       <c r="F298">
-        <v>0.8316766292984124</v>
+        <v>0.8316766292984126</v>
       </c>
       <c r="G298">
         <v>0.8166764262283912</v>
       </c>
       <c r="H298">
-        <v>0.8136218792541856</v>
+        <v>0.8136218792541855</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8131,7 +8131,7 @@
         <v>0.7916391931360468</v>
       </c>
       <c r="E299">
-        <v>0.949294854089215</v>
+        <v>0.9492948540892149</v>
       </c>
       <c r="F299">
         <v>0.7440467108182638</v>
@@ -8140,7 +8140,7 @@
         <v>0.9480771297408066</v>
       </c>
       <c r="H299">
-        <v>0.9385806917411432</v>
+        <v>0.938580691741143</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8157,16 +8157,16 @@
         <v>0.8752613499451457</v>
       </c>
       <c r="E300">
-        <v>0.8076613905427108</v>
+        <v>0.8076613905427105</v>
       </c>
       <c r="F300">
-        <v>0.8283639907887191</v>
+        <v>0.8283639907887193</v>
       </c>
       <c r="G300">
         <v>0.8101733914294214</v>
       </c>
       <c r="H300">
-        <v>0.8117804332779219</v>
+        <v>0.8117804332779217</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8177,22 +8177,22 @@
         <v>0.784802389326912</v>
       </c>
       <c r="C301">
-        <v>1.018376312995311</v>
+        <v>1.01837631299531</v>
       </c>
       <c r="D301">
-        <v>0.8762134544633681</v>
+        <v>0.8762134544633682</v>
       </c>
       <c r="E301">
-        <v>0.9777926182717765</v>
+        <v>0.9777926182717763</v>
       </c>
       <c r="F301">
         <v>0.8329492789299824</v>
       </c>
       <c r="G301">
-        <v>0.9771459789318392</v>
+        <v>0.977145978931839</v>
       </c>
       <c r="H301">
-        <v>0.9679775313315034</v>
+        <v>0.9679775313315032</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8200,13 +8200,13 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>0.6400242975435445</v>
+        <v>0.6400242975435444</v>
       </c>
       <c r="C302">
         <v>1.145920674339825</v>
       </c>
       <c r="D302">
-        <v>0.7350193448185346</v>
+        <v>0.7350193448185349</v>
       </c>
       <c r="E302">
         <v>1.082199186197768</v>
@@ -8232,7 +8232,7 @@
         <v>1.187815934770699</v>
       </c>
       <c r="D303">
-        <v>0.6580300796532889</v>
+        <v>0.6580300796532892</v>
       </c>
       <c r="E303">
         <v>1.121068619565391</v>
@@ -8255,7 +8255,7 @@
         <v>0.7083013721951829</v>
       </c>
       <c r="C304">
-        <v>0.9421179659042389</v>
+        <v>0.9421179659042388</v>
       </c>
       <c r="D304">
         <v>0.7053676255946536</v>
@@ -8267,10 +8267,10 @@
         <v>0.7037906162609155</v>
       </c>
       <c r="G304">
-        <v>0.8965745436269699</v>
+        <v>0.8965745436269698</v>
       </c>
       <c r="H304">
-        <v>0.8909855507965876</v>
+        <v>0.8909855507965874</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8281,7 +8281,7 @@
         <v>0.708301372195183</v>
       </c>
       <c r="C305">
-        <v>0.942117965904239</v>
+        <v>0.9421179659042389</v>
       </c>
       <c r="D305">
         <v>0.7053676255946537</v>
@@ -8290,13 +8290,13 @@
         <v>0.9040754461725024</v>
       </c>
       <c r="F305">
-        <v>0.7037906162609157</v>
+        <v>0.7037906162609158</v>
       </c>
       <c r="G305">
         <v>0.8965745436269699</v>
       </c>
       <c r="H305">
-        <v>0.8909855507965876</v>
+        <v>0.8909855507965874</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8310,16 +8310,16 @@
         <v>0.8741190996130923</v>
       </c>
       <c r="D306">
-        <v>0.6307593848714742</v>
+        <v>0.6307593848714743</v>
       </c>
       <c r="E306">
-        <v>0.8517373041279709</v>
+        <v>0.8517373041279707</v>
       </c>
       <c r="F306">
         <v>0.7219057604710902</v>
       </c>
       <c r="G306">
-        <v>0.8349721075279833</v>
+        <v>0.834972107527983</v>
       </c>
       <c r="H306">
         <v>0.8408982075343502</v>
@@ -8333,22 +8333,22 @@
         <v>0.7083013721951831</v>
       </c>
       <c r="C307">
-        <v>0.9421179659042389</v>
+        <v>0.9421179659042388</v>
       </c>
       <c r="D307">
         <v>0.7053676255946536</v>
       </c>
       <c r="E307">
-        <v>0.9040754461725024</v>
+        <v>0.9040754461725022</v>
       </c>
       <c r="F307">
         <v>0.7037906162609155</v>
       </c>
       <c r="G307">
-        <v>0.8965745436269699</v>
+        <v>0.8965745436269698</v>
       </c>
       <c r="H307">
-        <v>0.8909855507965876</v>
+        <v>0.8909855507965874</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8365,16 +8365,16 @@
         <v>0.5675218735806407</v>
       </c>
       <c r="E308">
-        <v>0.9847472918942628</v>
+        <v>0.9847472918942629</v>
       </c>
       <c r="F308">
-        <v>0.664861318222531</v>
+        <v>0.6648613182225311</v>
       </c>
       <c r="G308">
         <v>0.9744304911661393</v>
       </c>
       <c r="H308">
-        <v>0.9666547012232866</v>
+        <v>0.9666547012232863</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8397,7 +8397,7 @@
         <v>0.7219057604710903</v>
       </c>
       <c r="G309">
-        <v>0.8349721075279833</v>
+        <v>0.8349721075279832</v>
       </c>
       <c r="H309">
         <v>0.8408982075343502</v>
@@ -8420,7 +8420,7 @@
         <v>1.047023992699603</v>
       </c>
       <c r="F310">
-        <v>0.6443476947543976</v>
+        <v>0.6443476947543977</v>
       </c>
       <c r="G310">
         <v>1.040078079137623</v>
@@ -8446,10 +8446,10 @@
         <v>0.7696381933354575</v>
       </c>
       <c r="F311">
-        <v>0.348965506247833</v>
+        <v>0.3489655062478331</v>
       </c>
       <c r="G311">
-        <v>0.7630357328194174</v>
+        <v>0.7630357328194173</v>
       </c>
       <c r="H311">
         <v>0.7539602704630448</v>
@@ -8460,7 +8460,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>0.4988637928382763</v>
+        <v>0.4988637928382764</v>
       </c>
       <c r="C312">
         <v>0.5709218472635699</v>
@@ -8469,13 +8469,13 @@
         <v>0.2380241610623443</v>
       </c>
       <c r="E312">
-        <v>0.5818502362149495</v>
+        <v>0.5818502362149496</v>
       </c>
       <c r="F312">
         <v>0.3980596797253503</v>
       </c>
       <c r="G312">
-        <v>0.5613236997181802</v>
+        <v>0.5613236997181801</v>
       </c>
       <c r="H312">
         <v>0.5783827885654412</v>
@@ -8492,16 +8492,16 @@
         <v>0.8139895581030923</v>
       </c>
       <c r="D313">
-        <v>0.2216779858474489</v>
+        <v>0.221677985847449</v>
       </c>
       <c r="E313">
         <v>0.7696381933354575</v>
       </c>
       <c r="F313">
-        <v>0.348965506247833</v>
+        <v>0.3489655062478331</v>
       </c>
       <c r="G313">
-        <v>0.7630357328194174</v>
+        <v>0.7630357328194173</v>
       </c>
       <c r="H313">
         <v>0.7539602704630448</v>
@@ -8521,16 +8521,16 @@
         <v>0.2216779858474489</v>
       </c>
       <c r="E314">
-        <v>0.7696381933354575</v>
+        <v>0.7696381933354576</v>
       </c>
       <c r="F314">
-        <v>0.348965506247833</v>
+        <v>0.3489655062478331</v>
       </c>
       <c r="G314">
-        <v>0.7630357328194174</v>
+        <v>0.7630357328194173</v>
       </c>
       <c r="H314">
-        <v>0.7539602704630449</v>
+        <v>0.7539602704630448</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8541,7 +8541,7 @@
         <v>1.068718738668732</v>
       </c>
       <c r="C315">
-        <v>1.151432879960955</v>
+        <v>1.151432879960954</v>
       </c>
       <c r="D315">
         <v>1.053707067000262</v>
@@ -8567,7 +8567,7 @@
         <v>1.24273031058221</v>
       </c>
       <c r="C316">
-        <v>1.075110286511851</v>
+        <v>1.07511028651185</v>
       </c>
       <c r="D316">
         <v>1.453864417098558</v>
@@ -8645,19 +8645,19 @@
         <v>1.097568534953289</v>
       </c>
       <c r="C319">
-        <v>0.9669679888590382</v>
+        <v>0.9669679888590381</v>
       </c>
       <c r="D319">
         <v>1.158992633163055</v>
       </c>
       <c r="E319">
-        <v>0.9701296797887972</v>
+        <v>0.9701296797887971</v>
       </c>
       <c r="F319">
         <v>1.148197397929752</v>
       </c>
       <c r="G319">
-        <v>0.952916022191258</v>
+        <v>0.9529160221912579</v>
       </c>
       <c r="H319">
         <v>0.9710177392297226</v>
@@ -8677,7 +8677,7 @@
         <v>1.229921741788699</v>
       </c>
       <c r="E320">
-        <v>0.9884462388212754</v>
+        <v>0.9884462388212752</v>
       </c>
       <c r="F320">
         <v>1.171723365940994</v>
@@ -8686,7 +8686,7 @@
         <v>0.9777464354001171</v>
       </c>
       <c r="H320">
-        <v>0.9902179112610635</v>
+        <v>0.9902179112610634</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8720,19 +8720,19 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>0.927875527669058</v>
+        <v>0.9278755276690579</v>
       </c>
       <c r="C322">
         <v>1.308630680247153</v>
       </c>
       <c r="D322">
-        <v>0.7731919991077113</v>
+        <v>0.7731919991077114</v>
       </c>
       <c r="E322">
         <v>1.241313684954112</v>
       </c>
       <c r="F322">
-        <v>0.915073563127501</v>
+        <v>0.9150735631275011</v>
       </c>
       <c r="G322">
         <v>1.229059269495375</v>
@@ -8755,16 +8755,16 @@
         <v>1.143790463797345</v>
       </c>
       <c r="E323">
-        <v>0.9814490868378476</v>
+        <v>0.9814490868378475</v>
       </c>
       <c r="F323">
         <v>1.129192835550934</v>
       </c>
       <c r="G323">
-        <v>0.9657429784508165</v>
+        <v>0.9657429784508164</v>
       </c>
       <c r="H323">
-        <v>0.97728678319045</v>
+        <v>0.9772867831904499</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8781,7 +8781,7 @@
         <v>1.143790463797345</v>
       </c>
       <c r="E324">
-        <v>0.9814490868378475</v>
+        <v>0.9814490868378474</v>
       </c>
       <c r="F324">
         <v>1.129192835550934</v>
@@ -8790,7 +8790,7 @@
         <v>0.9657429784508164</v>
       </c>
       <c r="H324">
-        <v>0.97728678319045</v>
+        <v>0.9772867831904501</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8807,16 +8807,16 @@
         <v>1.143790463797345</v>
       </c>
       <c r="E325">
-        <v>0.9814490868378475</v>
+        <v>0.9814490868378474</v>
       </c>
       <c r="F325">
         <v>1.129192835550934</v>
       </c>
       <c r="G325">
-        <v>0.9657429784508165</v>
+        <v>0.9657429784508164</v>
       </c>
       <c r="H325">
-        <v>0.97728678319045</v>
+        <v>0.9772867831904501</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8850,13 +8850,13 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>0.8858059106784676</v>
+        <v>0.8858059106784675</v>
       </c>
       <c r="C327">
         <v>1.233363231147169</v>
       </c>
       <c r="D327">
-        <v>0.6308205805733395</v>
+        <v>0.6308205805733396</v>
       </c>
       <c r="E327">
         <v>1.171798360458144</v>
@@ -8876,16 +8876,16 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>0.8660407321185912</v>
+        <v>0.8660407321185914</v>
       </c>
       <c r="C328">
-        <v>1.274135253290153</v>
+        <v>1.274135253290152</v>
       </c>
       <c r="D328">
-        <v>0.5594076563127121</v>
+        <v>0.5594076563127122</v>
       </c>
       <c r="E328">
-        <v>1.208772312843022</v>
+        <v>1.208772312843021</v>
       </c>
       <c r="F328">
         <v>0.7867951575244854</v>
@@ -8902,16 +8902,16 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>0.8134124331502495</v>
+        <v>0.8134124331502497</v>
       </c>
       <c r="C329">
         <v>1.252266858174074</v>
       </c>
       <c r="D329">
-        <v>0.4771205426728419</v>
+        <v>0.477120542672842</v>
       </c>
       <c r="E329">
-        <v>1.187159366277552</v>
+        <v>1.187159366277551</v>
       </c>
       <c r="F329">
         <v>0.7268162462175723</v>
@@ -8928,7 +8928,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>0.8660407321185912</v>
+        <v>0.8660407321185914</v>
       </c>
       <c r="C330">
         <v>1.274135253290152</v>
@@ -8960,7 +8960,7 @@
         <v>1.090495018593114</v>
       </c>
       <c r="D331">
-        <v>0.7051281433419077</v>
+        <v>0.7051281433419078</v>
       </c>
       <c r="E331">
         <v>1.056427368129853</v>
@@ -8969,7 +8969,7 @@
         <v>0.887183186964989</v>
       </c>
       <c r="G331">
-        <v>1.028843281733235</v>
+        <v>1.028843281733234</v>
       </c>
       <c r="H331">
         <v>1.035948139073961</v>
@@ -9041,10 +9041,10 @@
         <v>0.8553854115674661</v>
       </c>
       <c r="E334">
-        <v>1.322371001963884</v>
+        <v>1.322371001963885</v>
       </c>
       <c r="F334">
-        <v>0.9931309898614368</v>
+        <v>0.9931309898614369</v>
       </c>
       <c r="G334">
         <v>1.306313826000049</v>
@@ -9064,16 +9064,16 @@
         <v>1.35727606131898</v>
       </c>
       <c r="D335">
-        <v>0.7932294760567175</v>
+        <v>0.7932294760567176</v>
       </c>
       <c r="E335">
         <v>1.292855936731663</v>
       </c>
       <c r="F335">
-        <v>0.9246403648612905</v>
+        <v>0.9246403648612906</v>
       </c>
       <c r="G335">
-        <v>1.278167392055989</v>
+        <v>1.278167392055988</v>
       </c>
       <c r="H335">
         <v>1.264970230072184</v>
@@ -9084,10 +9084,10 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>0.9171107627692812</v>
+        <v>0.9171107627692813</v>
       </c>
       <c r="C336">
-        <v>1.292665502219931</v>
+        <v>1.29266550221993</v>
       </c>
       <c r="D336">
         <v>0.545696037143192</v>
@@ -9113,7 +9113,7 @@
         <v>0.5213719770120874</v>
       </c>
       <c r="C337">
-        <v>0.6071150865319381</v>
+        <v>0.607115086531938</v>
       </c>
       <c r="D337">
         <v>0.5197389387779456</v>
@@ -9122,7 +9122,7 @@
         <v>0.5894215544208967</v>
       </c>
       <c r="F337">
-        <v>0.495984042583481</v>
+        <v>0.4959840425834811</v>
       </c>
       <c r="G337">
         <v>0.5890749364635472</v>
@@ -9139,7 +9139,7 @@
         <v>0.4649873988093255</v>
       </c>
       <c r="C338">
-        <v>0.5784549748995231</v>
+        <v>0.578454974899523</v>
       </c>
       <c r="D338">
         <v>0.6184200935596562</v>
@@ -9171,10 +9171,10 @@
         <v>0.5197389387779456</v>
       </c>
       <c r="E339">
-        <v>0.5894215544208967</v>
+        <v>0.5894215544208966</v>
       </c>
       <c r="F339">
-        <v>0.495984042583481</v>
+        <v>0.4959840425834811</v>
       </c>
       <c r="G339">
         <v>0.5890749364635471</v>
@@ -9226,7 +9226,7 @@
         <v>0.6159157997531657</v>
       </c>
       <c r="F341">
-        <v>0.4088107629812271</v>
+        <v>0.4088107629812272</v>
       </c>
       <c r="G341">
         <v>0.6172084669883591</v>
@@ -9249,16 +9249,16 @@
         <v>0.402577370875935</v>
       </c>
       <c r="E342">
-        <v>0.7141762295383475</v>
+        <v>0.7141762295383473</v>
       </c>
       <c r="F342">
         <v>0.4055557063756077</v>
       </c>
       <c r="G342">
-        <v>0.7123152093190427</v>
+        <v>0.7123152093190426</v>
       </c>
       <c r="H342">
-        <v>0.7024135512118844</v>
+        <v>0.7024135512118845</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9275,7 +9275,7 @@
         <v>0.402577370875935</v>
       </c>
       <c r="E343">
-        <v>0.7141762295383474</v>
+        <v>0.7141762295383473</v>
       </c>
       <c r="F343">
         <v>0.4055557063756077</v>
@@ -9284,7 +9284,7 @@
         <v>0.7123152093190426</v>
       </c>
       <c r="H343">
-        <v>0.7024135512118844</v>
+        <v>0.7024135512118846</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9298,7 +9298,7 @@
         <v>0.66739181093584</v>
       </c>
       <c r="D344">
-        <v>0.385098028627846</v>
+        <v>0.3850980286278459</v>
       </c>
       <c r="E344">
         <v>0.637320856178913</v>
@@ -9307,7 +9307,7 @@
         <v>0.3797456644586655</v>
       </c>
       <c r="G344">
-        <v>0.6348993174083742</v>
+        <v>0.6348993174083741</v>
       </c>
       <c r="H344">
         <v>0.626402422188585</v>
@@ -9333,7 +9333,7 @@
         <v>0.2755603983053457</v>
       </c>
       <c r="G345">
-        <v>0.5522764275634373</v>
+        <v>0.5522764275634374</v>
       </c>
       <c r="H345">
         <v>0.5446672385599716</v>
@@ -9359,7 +9359,7 @@
         <v>0.2755603983053457</v>
       </c>
       <c r="G346">
-        <v>0.5522764275634373</v>
+        <v>0.5522764275634374</v>
       </c>
       <c r="H346">
         <v>0.5446672385599716</v>
@@ -9385,7 +9385,7 @@
         <v>0.2755603983053457</v>
       </c>
       <c r="G347">
-        <v>0.5522764275634373</v>
+        <v>0.5522764275634374</v>
       </c>
       <c r="H347">
         <v>0.5446672385599716</v>
@@ -9405,7 +9405,7 @@
         <v>0.2966148364955496</v>
       </c>
       <c r="E348">
-        <v>0.691489935887701</v>
+        <v>0.6914899358877011</v>
       </c>
       <c r="F348">
         <v>0.4168481035505134</v>
@@ -9431,10 +9431,10 @@
         <v>0.2966148364955496</v>
       </c>
       <c r="E349">
-        <v>0.691489935887701</v>
+        <v>0.6914899358877011</v>
       </c>
       <c r="F349">
-        <v>0.4168481035505135</v>
+        <v>0.4168481035505134</v>
       </c>
       <c r="G349">
         <v>0.6782109510929588</v>
@@ -9457,7 +9457,7 @@
         <v>0.2966148364955496</v>
       </c>
       <c r="E350">
-        <v>0.6914899358877009</v>
+        <v>0.6914899358877011</v>
       </c>
       <c r="F350">
         <v>0.4168481035505134</v>
@@ -9466,7 +9466,7 @@
         <v>0.6782109510929588</v>
       </c>
       <c r="H350">
-        <v>0.6729718378910067</v>
+        <v>0.6729718378910066</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9503,7 +9503,7 @@
         <v>0.2684896447201207</v>
       </c>
       <c r="C352">
-        <v>0.5499618432585629</v>
+        <v>0.5499618432585628</v>
       </c>
       <c r="D352">
         <v>0.2167790230501862</v>
@@ -9515,7 +9515,7 @@
         <v>0.216703293387778</v>
       </c>
       <c r="G352">
-        <v>0.520784002656998</v>
+        <v>0.5207840026569979</v>
       </c>
       <c r="H352">
         <v>0.5131759574118684</v>
@@ -9541,10 +9541,10 @@
         <v>0.6360539501349695</v>
       </c>
       <c r="G353">
-        <v>0.8259652114938484</v>
+        <v>0.8259652114938483</v>
       </c>
       <c r="H353">
-        <v>0.8199196330127276</v>
+        <v>0.8199196330127279</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9555,7 +9555,7 @@
         <v>0.763289459070056</v>
       </c>
       <c r="C354">
-        <v>0.7777702841899303</v>
+        <v>0.7777702841899302</v>
       </c>
       <c r="D354">
         <v>0.3948751113251754</v>
@@ -9587,13 +9587,13 @@
         <v>0.4593834730191068</v>
       </c>
       <c r="E355">
-        <v>0.8711866953081603</v>
+        <v>0.8711866953081604</v>
       </c>
       <c r="F355">
         <v>0.6227019079282501</v>
       </c>
       <c r="G355">
-        <v>0.854193642051555</v>
+        <v>0.8541936420515549</v>
       </c>
       <c r="H355">
         <v>0.8465154400619456</v>
@@ -9607,7 +9607,7 @@
         <v>0.5308850532646815</v>
       </c>
       <c r="C356">
-        <v>0.7190313623559568</v>
+        <v>0.7190313623559565</v>
       </c>
       <c r="D356">
         <v>0.4588233981519467</v>
@@ -9622,7 +9622,7 @@
         <v>0.6783793458334572</v>
       </c>
       <c r="H356">
-        <v>0.670654814884233</v>
+        <v>0.6706548148842331</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9633,13 +9633,13 @@
         <v>0.5308850532646815</v>
       </c>
       <c r="C357">
-        <v>0.7190313623559568</v>
+        <v>0.7190313623559565</v>
       </c>
       <c r="D357">
         <v>0.4588233981519467</v>
       </c>
       <c r="E357">
-        <v>0.6900659788072144</v>
+        <v>0.6900659788072143</v>
       </c>
       <c r="F357">
         <v>0.4662196814524646</v>
@@ -9659,19 +9659,19 @@
         <v>0.5308850532646815</v>
       </c>
       <c r="C358">
-        <v>0.7190313623559568</v>
+        <v>0.7190313623559565</v>
       </c>
       <c r="D358">
         <v>0.4588233981519467</v>
       </c>
       <c r="E358">
-        <v>0.6900659788072144</v>
+        <v>0.6900659788072143</v>
       </c>
       <c r="F358">
         <v>0.4662196814524646</v>
       </c>
       <c r="G358">
-        <v>0.6783793458334572</v>
+        <v>0.678379345833457</v>
       </c>
       <c r="H358">
         <v>0.6706548148842331</v>
@@ -9691,7 +9691,7 @@
         <v>0.1669808018885529</v>
       </c>
       <c r="E359">
-        <v>0.5524358537407067</v>
+        <v>0.5524358537407066</v>
       </c>
       <c r="F359">
         <v>0.2179926656601302</v>
@@ -9700,7 +9700,7 @@
         <v>0.5430570687855001</v>
       </c>
       <c r="H359">
-        <v>0.5365651942134786</v>
+        <v>0.5365651942134787</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9711,7 +9711,7 @@
         <v>0.2352257959127843</v>
       </c>
       <c r="C360">
-        <v>0.5780906647214678</v>
+        <v>0.5780906647214676</v>
       </c>
       <c r="D360">
         <v>0.1669808018885529</v>
@@ -9723,7 +9723,7 @@
         <v>0.2179926656601302</v>
       </c>
       <c r="G360">
-        <v>0.5430570687855</v>
+        <v>0.5430570687855001</v>
       </c>
       <c r="H360">
         <v>0.5365651942134786</v>
@@ -9734,19 +9734,19 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>0.5569203623334855</v>
+        <v>0.5569203623334857</v>
       </c>
       <c r="C361">
-        <v>1.168702126634274</v>
+        <v>1.168702126634273</v>
       </c>
       <c r="D361">
-        <v>0.6419540817456607</v>
+        <v>0.6419540817456608</v>
       </c>
       <c r="E361">
         <v>1.103857553406096</v>
       </c>
       <c r="F361">
-        <v>0.6500125620182865</v>
+        <v>0.6500125620182866</v>
       </c>
       <c r="G361">
         <v>1.099296946744409</v>
@@ -9766,7 +9766,7 @@
         <v>1.189237643974565</v>
       </c>
       <c r="D362">
-        <v>0.4408286044329134</v>
+        <v>0.4408286044329135</v>
       </c>
       <c r="E362">
         <v>1.119799425912538</v>
@@ -9824,13 +9824,13 @@
         <v>1.101106440416691</v>
       </c>
       <c r="F364">
-        <v>0.6859738685423968</v>
+        <v>0.6859738685423967</v>
       </c>
       <c r="G364">
         <v>1.10348651026449</v>
       </c>
       <c r="H364">
-        <v>1.085165706214654</v>
+        <v>1.085165706214653</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9844,7 +9844,7 @@
         <v>1.1719165372087</v>
       </c>
       <c r="D365">
-        <v>0.6945241923628651</v>
+        <v>0.6945241923628652</v>
       </c>
       <c r="E365">
         <v>1.101106440416691</v>
@@ -9873,13 +9873,13 @@
         <v>0.3871869151414691</v>
       </c>
       <c r="E366">
-        <v>1.008369242405507</v>
+        <v>1.008369242405506</v>
       </c>
       <c r="F366">
-        <v>0.4721609036382022</v>
+        <v>0.4721609036382021</v>
       </c>
       <c r="G366">
-        <v>1.003886735239055</v>
+        <v>1.003886735239054</v>
       </c>
       <c r="H366">
         <v>0.9880221071083499</v>
@@ -9902,7 +9902,7 @@
         <v>1.008369242405507</v>
       </c>
       <c r="F367">
-        <v>0.4721609036382022</v>
+        <v>0.4721609036382021</v>
       </c>
       <c r="G367">
         <v>1.003886735239055</v>
@@ -9919,7 +9919,7 @@
         <v>0.5679419846045386</v>
       </c>
       <c r="C368">
-        <v>1.08525071914556</v>
+        <v>1.085250719145559</v>
       </c>
       <c r="D368">
         <v>0.5360918545251793</v>
@@ -9948,19 +9948,19 @@
         <v>1.076220748053521</v>
       </c>
       <c r="D369">
-        <v>0.387186915141469</v>
+        <v>0.3871869151414691</v>
       </c>
       <c r="E369">
-        <v>1.008369242405507</v>
+        <v>1.008369242405506</v>
       </c>
       <c r="F369">
         <v>0.4721609036382021</v>
       </c>
       <c r="G369">
-        <v>1.003886735239055</v>
+        <v>1.003886735239054</v>
       </c>
       <c r="H369">
-        <v>0.9880221071083499</v>
+        <v>0.9880221071083498</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -9971,13 +9971,13 @@
         <v>0.4849120665559162</v>
       </c>
       <c r="C370">
-        <v>0.9999614524202272</v>
+        <v>0.999961452420227</v>
       </c>
       <c r="D370">
-        <v>0.2387212730402786</v>
+        <v>0.2387212730402785</v>
       </c>
       <c r="E370">
-        <v>0.9399609099954386</v>
+        <v>0.9399609099954385</v>
       </c>
       <c r="F370">
         <v>0.3565689042483131</v>
@@ -9986,7 +9986,7 @@
         <v>0.9289822855096895</v>
       </c>
       <c r="H370">
-        <v>0.9168281450387862</v>
+        <v>0.9168281450387861</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -9997,7 +9997,7 @@
         <v>0.4849120665559162</v>
       </c>
       <c r="C371">
-        <v>0.9999614524202273</v>
+        <v>0.9999614524202269</v>
       </c>
       <c r="D371">
         <v>0.2387212730402785</v>
@@ -10012,7 +10012,7 @@
         <v>0.9289822855096894</v>
       </c>
       <c r="H371">
-        <v>0.9168281450387862</v>
+        <v>0.916828145038786</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10023,7 +10023,7 @@
         <v>0.4849120665559162</v>
       </c>
       <c r="C372">
-        <v>0.9999614524202273</v>
+        <v>0.999961452420227</v>
       </c>
       <c r="D372">
         <v>0.2387212730402785</v>
@@ -10058,7 +10058,7 @@
         <v>0.9303048660523153</v>
       </c>
       <c r="F373">
-        <v>0.6572050281261411</v>
+        <v>0.6572050281261412</v>
       </c>
       <c r="G373">
         <v>0.928371552024855</v>
@@ -10081,16 +10081,16 @@
         <v>0.4546327316276053</v>
       </c>
       <c r="E374">
-        <v>0.7993760517432322</v>
+        <v>0.7993760517432323</v>
       </c>
       <c r="F374">
-        <v>0.525757798697297</v>
+        <v>0.5257577986972969</v>
       </c>
       <c r="G374">
-        <v>0.794556531255788</v>
+        <v>0.7945565312557877</v>
       </c>
       <c r="H374">
-        <v>0.788362718384463</v>
+        <v>0.7883627183844631</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10104,10 +10104,10 @@
         <v>1.017756531041182</v>
       </c>
       <c r="D375">
-        <v>0.5075223483008404</v>
+        <v>0.5075223483008405</v>
       </c>
       <c r="E375">
-        <v>0.964543587790769</v>
+        <v>0.9645435877907689</v>
       </c>
       <c r="F375">
         <v>0.6182504887335911</v>
@@ -10124,7 +10124,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>0.550772245527157</v>
+        <v>0.5507722455271571</v>
       </c>
       <c r="C376">
         <v>0.8915184328940543</v>
@@ -10133,16 +10133,16 @@
         <v>0.4069644948578381</v>
       </c>
       <c r="E376">
-        <v>0.8467666886441583</v>
+        <v>0.8467666886441585</v>
       </c>
       <c r="F376">
-        <v>0.491889069570336</v>
+        <v>0.4918890695703358</v>
       </c>
       <c r="G376">
         <v>0.8395304310251428</v>
       </c>
       <c r="H376">
-        <v>0.8302369960992895</v>
+        <v>0.8302369960992896</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10150,22 +10150,22 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>0.550772245527157</v>
+        <v>0.5507722455271571</v>
       </c>
       <c r="C377">
-        <v>0.8915184328940543</v>
+        <v>0.8915184328940542</v>
       </c>
       <c r="D377">
         <v>0.4069644948578381</v>
       </c>
       <c r="E377">
-        <v>0.8467666886441584</v>
+        <v>0.8467666886441585</v>
       </c>
       <c r="F377">
-        <v>0.491889069570336</v>
+        <v>0.4918890695703358</v>
       </c>
       <c r="G377">
-        <v>0.839530431025143</v>
+        <v>0.8395304310251428</v>
       </c>
       <c r="H377">
         <v>0.8302369960992897</v>
@@ -10179,7 +10179,7 @@
         <v>0.76376211807331</v>
       </c>
       <c r="C378">
-        <v>1.076186250753838</v>
+        <v>1.076186250753837</v>
       </c>
       <c r="D378">
         <v>0.7061479968483955</v>
@@ -10205,7 +10205,7 @@
         <v>0.7637621180733101</v>
       </c>
       <c r="C379">
-        <v>1.076186250753838</v>
+        <v>1.076186250753837</v>
       </c>
       <c r="D379">
         <v>0.7061479968483955</v>
@@ -10240,7 +10240,7 @@
         <v>1.057487097814615</v>
       </c>
       <c r="F380">
-        <v>0.7104586669103778</v>
+        <v>0.710458666910378</v>
       </c>
       <c r="G380">
         <v>1.048461095604944</v>
@@ -10266,7 +10266,7 @@
         <v>1.057487097814615</v>
       </c>
       <c r="F381">
-        <v>0.7104586669103778</v>
+        <v>0.710458666910378</v>
       </c>
       <c r="G381">
         <v>1.048461095604944</v>
@@ -10298,7 +10298,7 @@
         <v>0.9738076094966196</v>
       </c>
       <c r="H382">
-        <v>0.9634071328157534</v>
+        <v>0.9634071328157533</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10312,7 +10312,7 @@
         <v>1.145232527294855</v>
       </c>
       <c r="D383">
-        <v>0.4789208406384857</v>
+        <v>0.4789208406384856</v>
       </c>
       <c r="E383">
         <v>1.082202877460882</v>
@@ -10332,7 +10332,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>0.572448817208232</v>
+        <v>0.5724488172082322</v>
       </c>
       <c r="C384">
         <v>1.048555961627092</v>
@@ -10344,7 +10344,7 @@
         <v>0.992300193557026</v>
       </c>
       <c r="F384">
-        <v>0.5567102127416605</v>
+        <v>0.5567102127416607</v>
       </c>
       <c r="G384">
         <v>0.9849496582845166</v>
@@ -10364,7 +10364,7 @@
         <v>1.238049984440657</v>
       </c>
       <c r="D385">
-        <v>0.6232467691831517</v>
+        <v>0.6232467691831518</v>
       </c>
       <c r="E385">
         <v>1.170936502911272</v>
@@ -10390,16 +10390,16 @@
         <v>0.969941563643362</v>
       </c>
       <c r="D386">
-        <v>0.3515492042862024</v>
+        <v>0.3515492042862025</v>
       </c>
       <c r="E386">
-        <v>0.9153834395472591</v>
+        <v>0.915383439547259</v>
       </c>
       <c r="F386">
         <v>0.3953094460260753</v>
       </c>
       <c r="G386">
-        <v>0.9078230068326115</v>
+        <v>0.9078230068326114</v>
       </c>
       <c r="H386">
         <v>0.8952981043412265</v>
@@ -10416,7 +10416,7 @@
         <v>0.9699415636433618</v>
       </c>
       <c r="D387">
-        <v>0.3515492042862023</v>
+        <v>0.3515492042862024</v>
       </c>
       <c r="E387">
         <v>0.9153834395472591</v>
@@ -10425,7 +10425,7 @@
         <v>0.3953094460260753</v>
       </c>
       <c r="G387">
-        <v>0.9078230068326115</v>
+        <v>0.9078230068326113</v>
       </c>
       <c r="H387">
         <v>0.8952981043412263</v>
@@ -10477,10 +10477,10 @@
         <v>0.4410149964765901</v>
       </c>
       <c r="G389">
-        <v>0.5773334662488028</v>
+        <v>0.5773334662488027</v>
       </c>
       <c r="H389">
-        <v>0.5707251066811021</v>
+        <v>0.570725106681102</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10503,7 +10503,7 @@
         <v>0.4410149964765901</v>
       </c>
       <c r="G390">
-        <v>0.5773334662488027</v>
+        <v>0.5773334662488026</v>
       </c>
       <c r="H390">
         <v>0.570725106681102</v>
@@ -10520,10 +10520,10 @@
         <v>0.6117360358411992</v>
       </c>
       <c r="D391">
-        <v>0.6097011676879697</v>
+        <v>0.6097011676879698</v>
       </c>
       <c r="E391">
-        <v>0.5862038344214358</v>
+        <v>0.5862038344214359</v>
       </c>
       <c r="F391">
         <v>0.5635168367916435</v>
@@ -10546,7 +10546,7 @@
         <v>0.609333973019895</v>
       </c>
       <c r="D392">
-        <v>0.3392425110304104</v>
+        <v>0.3392425110304105</v>
       </c>
       <c r="E392">
         <v>0.5821749271482871</v>
@@ -10566,7 +10566,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>0.4745025366636473</v>
+        <v>0.4745025366636472</v>
       </c>
       <c r="C393">
         <v>0.4756264203810723</v>
@@ -10584,7 +10584,7 @@
         <v>0.4533496424701145</v>
       </c>
       <c r="H393">
-        <v>0.4482368518925732</v>
+        <v>0.4482368518925733</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10592,10 +10592,10 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>0.4745025366636472</v>
+        <v>0.4745025366636471</v>
       </c>
       <c r="C394">
-        <v>0.4756264203810723</v>
+        <v>0.4756264203810722</v>
       </c>
       <c r="D394">
         <v>0.3598914120668667</v>
@@ -10618,7 +10618,7 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>0.4934800992538075</v>
+        <v>0.4934800992538074</v>
       </c>
       <c r="C395">
         <v>0.4919929867745357</v>
@@ -10630,10 +10630,10 @@
         <v>0.4725811929828381</v>
       </c>
       <c r="F395">
-        <v>0.3736005318333034</v>
+        <v>0.3736005318333033</v>
       </c>
       <c r="G395">
-        <v>0.4659568174692031</v>
+        <v>0.465956817469203</v>
       </c>
       <c r="H395">
         <v>0.4617325297747578</v>
@@ -10644,7 +10644,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>0.4934800992538076</v>
+        <v>0.4934800992538074</v>
       </c>
       <c r="C396">
         <v>0.4919929867745357</v>
@@ -10659,7 +10659,7 @@
         <v>0.3736005318333034</v>
       </c>
       <c r="G396">
-        <v>0.4659568174692031</v>
+        <v>0.465956817469203</v>
       </c>
       <c r="H396">
         <v>0.4617325297747578</v>
@@ -10676,7 +10676,7 @@
         <v>0.5391571941609945</v>
       </c>
       <c r="D397">
-        <v>0.3606307972538435</v>
+        <v>0.3606307972538436</v>
       </c>
       <c r="E397">
         <v>0.5182763221029638</v>
@@ -10685,10 +10685,10 @@
         <v>0.510150013835683</v>
       </c>
       <c r="G397">
-        <v>0.5127024891012956</v>
+        <v>0.5127024891012955</v>
       </c>
       <c r="H397">
-        <v>0.5082919358232705</v>
+        <v>0.5082919358232704</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10702,19 +10702,19 @@
         <v>0.5391571941609945</v>
       </c>
       <c r="D398">
-        <v>0.3606307972538435</v>
+        <v>0.3606307972538436</v>
       </c>
       <c r="E398">
-        <v>0.5182763221029638</v>
+        <v>0.5182763221029637</v>
       </c>
       <c r="F398">
         <v>0.510150013835683</v>
       </c>
       <c r="G398">
-        <v>0.5127024891012956</v>
+        <v>0.5127024891012955</v>
       </c>
       <c r="H398">
-        <v>0.5082919358232705</v>
+        <v>0.5082919358232704</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10725,7 +10725,7 @@
         <v>0.5563433123913351</v>
       </c>
       <c r="C399">
-        <v>0.6033772338810498</v>
+        <v>0.6033772338810497</v>
       </c>
       <c r="D399">
         <v>0.390777068849555</v>
@@ -10740,7 +10740,7 @@
         <v>0.5662156505366285</v>
       </c>
       <c r="H399">
-        <v>0.5577126319067109</v>
+        <v>0.5577126319067108</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10751,10 +10751,10 @@
         <v>0.5452280569983303</v>
       </c>
       <c r="C400">
-        <v>0.61999710642107</v>
+        <v>0.6199971064210699</v>
       </c>
       <c r="D400">
-        <v>0.3433684801652097</v>
+        <v>0.3433684801652096</v>
       </c>
       <c r="E400">
         <v>0.5848407974581946</v>
@@ -10763,7 +10763,7 @@
         <v>0.3694608610118419</v>
       </c>
       <c r="G400">
-        <v>0.5795125892721403</v>
+        <v>0.5795125892721402</v>
       </c>
       <c r="H400">
         <v>0.5706975469158018</v>
@@ -10777,7 +10777,7 @@
         <v>0.556637831052446</v>
       </c>
       <c r="C401">
-        <v>0.6281981303492297</v>
+        <v>0.6281981303492296</v>
       </c>
       <c r="D401">
         <v>0.3728841540217129</v>
@@ -10789,7 +10789,7 @@
         <v>0.3845228440647228</v>
       </c>
       <c r="G401">
-        <v>0.5881903343208403</v>
+        <v>0.5881903343208404</v>
       </c>
       <c r="H401">
         <v>0.5793331822091112</v>
@@ -10803,10 +10803,10 @@
         <v>0.5461020547610506</v>
       </c>
       <c r="C402">
-        <v>0.5694615117798972</v>
+        <v>0.569461511779897</v>
       </c>
       <c r="D402">
-        <v>0.2951869801214764</v>
+        <v>0.2951869801214763</v>
       </c>
       <c r="E402">
         <v>0.539612142393167</v>
@@ -10829,10 +10829,10 @@
         <v>0.5452280569983303</v>
       </c>
       <c r="C403">
-        <v>0.6199971064210699</v>
+        <v>0.6199971064210698</v>
       </c>
       <c r="D403">
-        <v>0.3433684801652097</v>
+        <v>0.3433684801652096</v>
       </c>
       <c r="E403">
         <v>0.5848407974581946</v>
@@ -10841,7 +10841,7 @@
         <v>0.3694608610118419</v>
       </c>
       <c r="G403">
-        <v>0.5795125892721403</v>
+        <v>0.5795125892721401</v>
       </c>
       <c r="H403">
         <v>0.5706975469158018</v>
@@ -10855,16 +10855,16 @@
         <v>0.4855743723691365</v>
       </c>
       <c r="C404">
-        <v>0.5537585074052709</v>
+        <v>0.5537585074052708</v>
       </c>
       <c r="D404">
-        <v>0.3314698251994542</v>
+        <v>0.3314698251994541</v>
       </c>
       <c r="E404">
         <v>0.5234247549946621</v>
       </c>
       <c r="F404">
-        <v>0.3339863691758856</v>
+        <v>0.3339863691758855</v>
       </c>
       <c r="G404">
         <v>0.5188304554598265</v>
@@ -10884,7 +10884,7 @@
         <v>0.5537585074052709</v>
       </c>
       <c r="D405">
-        <v>0.3314698251994542</v>
+        <v>0.3314698251994541</v>
       </c>
       <c r="E405">
         <v>0.5234247549946621</v>
@@ -10907,16 +10907,16 @@
         <v>0.4855743723691365</v>
       </c>
       <c r="C406">
-        <v>0.5537585074052709</v>
+        <v>0.5537585074052708</v>
       </c>
       <c r="D406">
-        <v>0.3314698251994542</v>
+        <v>0.3314698251994541</v>
       </c>
       <c r="E406">
         <v>0.5234247549946621</v>
       </c>
       <c r="F406">
-        <v>0.3339863691758856</v>
+        <v>0.3339863691758855</v>
       </c>
       <c r="G406">
         <v>0.5188304554598265</v>
@@ -10933,10 +10933,10 @@
         <v>0.434488069241908</v>
       </c>
       <c r="C407">
-        <v>0.506964295498989</v>
+        <v>0.5069642954989889</v>
       </c>
       <c r="D407">
-        <v>0.3104936224926097</v>
+        <v>0.3104936224926096</v>
       </c>
       <c r="E407">
         <v>0.47932248926711</v>
@@ -10959,10 +10959,10 @@
         <v>0.434488069241908</v>
       </c>
       <c r="C408">
-        <v>0.506964295498989</v>
+        <v>0.5069642954989889</v>
       </c>
       <c r="D408">
-        <v>0.3104936224926097</v>
+        <v>0.3104936224926096</v>
       </c>
       <c r="E408">
         <v>0.4793224892671099</v>
@@ -10974,7 +10974,7 @@
         <v>0.4753722639410091</v>
       </c>
       <c r="H408">
-        <v>0.4679653305837687</v>
+        <v>0.4679653305837686</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -10985,7 +10985,7 @@
         <v>0.434488069241908</v>
       </c>
       <c r="C409">
-        <v>0.506964295498989</v>
+        <v>0.5069642954989889</v>
       </c>
       <c r="D409">
         <v>0.3104936224926097</v>
@@ -11000,7 +11000,7 @@
         <v>0.4753722639410091</v>
       </c>
       <c r="H409">
-        <v>0.4679653305837688</v>
+        <v>0.4679653305837687</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11011,19 +11011,19 @@
         <v>0.5872213342437196</v>
       </c>
       <c r="C410">
-        <v>0.9566397530876367</v>
+        <v>0.9566397530876366</v>
       </c>
       <c r="D410">
         <v>0.6408003341476672</v>
       </c>
       <c r="E410">
-        <v>0.8968325800290462</v>
+        <v>0.896832580029046</v>
       </c>
       <c r="F410">
         <v>0.5814456456558292</v>
       </c>
       <c r="G410">
-        <v>0.8970155818524558</v>
+        <v>0.897015581852456</v>
       </c>
       <c r="H410">
         <v>0.8819398714921423</v>
@@ -11037,22 +11037,22 @@
         <v>0.5082888323921455</v>
       </c>
       <c r="C411">
-        <v>0.8940942038465225</v>
+        <v>0.8940942038465224</v>
       </c>
       <c r="D411">
         <v>0.5082254599317184</v>
       </c>
       <c r="E411">
-        <v>0.8382151596407061</v>
+        <v>0.8382151596407059</v>
       </c>
       <c r="F411">
-        <v>0.4769161462849559</v>
+        <v>0.4769161462849558</v>
       </c>
       <c r="G411">
-        <v>0.8372245442019688</v>
+        <v>0.8372245442019687</v>
       </c>
       <c r="H411">
-        <v>0.823143479223497</v>
+        <v>0.8231434792234968</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11063,19 +11063,19 @@
         <v>0.5082888323921455</v>
       </c>
       <c r="C412">
-        <v>0.8940942038465225</v>
+        <v>0.8940942038465224</v>
       </c>
       <c r="D412">
-        <v>0.5082254599317184</v>
+        <v>0.5082254599317183</v>
       </c>
       <c r="E412">
-        <v>0.8382151596407061</v>
+        <v>0.8382151596407059</v>
       </c>
       <c r="F412">
-        <v>0.4769161462849559</v>
+        <v>0.4769161462849558</v>
       </c>
       <c r="G412">
-        <v>0.8372245442019687</v>
+        <v>0.8372245442019686</v>
       </c>
       <c r="H412">
         <v>0.8231434792234968</v>
@@ -11098,10 +11098,10 @@
         <v>0.8200275003237197</v>
       </c>
       <c r="F413">
-        <v>0.3654592267230762</v>
+        <v>0.3654592267230761</v>
       </c>
       <c r="G413">
-        <v>0.8139658431380968</v>
+        <v>0.8139658431380967</v>
       </c>
       <c r="H413">
         <v>0.8015395150709156</v>
@@ -11127,7 +11127,7 @@
         <v>0.5454314942834657</v>
       </c>
       <c r="G414">
-        <v>0.9306310851179186</v>
+        <v>0.9306310851179188</v>
       </c>
       <c r="H414">
         <v>0.9145859967388741</v>
@@ -11153,7 +11153,7 @@
         <v>0.5083686334334181</v>
       </c>
       <c r="G415">
-        <v>0.8490693762821391</v>
+        <v>0.849069376282139</v>
       </c>
       <c r="H415">
         <v>0.8356945305196856</v>
@@ -11193,7 +11193,7 @@
         <v>0.5827329916932948</v>
       </c>
       <c r="C417">
-        <v>0.7528018646240424</v>
+        <v>0.7528018646240423</v>
       </c>
       <c r="D417">
         <v>0.3486567623713059</v>
@@ -11202,7 +11202,7 @@
         <v>0.708193907730256</v>
       </c>
       <c r="F417">
-        <v>0.4144634619114105</v>
+        <v>0.4144634619114104</v>
       </c>
       <c r="G417">
         <v>0.7024552195773707</v>
@@ -11219,16 +11219,16 @@
         <v>0.582732991693295</v>
       </c>
       <c r="C418">
-        <v>0.7528018646240425</v>
+        <v>0.7528018646240424</v>
       </c>
       <c r="D418">
-        <v>0.3486567623713061</v>
+        <v>0.3486567623713059</v>
       </c>
       <c r="E418">
         <v>0.708193907730256</v>
       </c>
       <c r="F418">
-        <v>0.4144634619114105</v>
+        <v>0.4144634619114104</v>
       </c>
       <c r="G418">
         <v>0.7024552195773707</v>
@@ -11245,13 +11245,13 @@
         <v>0.5701228716027427</v>
       </c>
       <c r="C419">
-        <v>0.8207483360265831</v>
+        <v>0.820748336026583</v>
       </c>
       <c r="D419">
         <v>0.5669409976438665</v>
       </c>
       <c r="E419">
-        <v>0.7792434360603022</v>
+        <v>0.7792434360603019</v>
       </c>
       <c r="F419">
         <v>0.535416743769153</v>
@@ -11260,7 +11260,7 @@
         <v>0.7797058111029829</v>
       </c>
       <c r="H419">
-        <v>0.7681542713626514</v>
+        <v>0.7681542713626512</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11268,19 +11268,19 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>0.5701228716027427</v>
+        <v>0.5701228716027426</v>
       </c>
       <c r="C420">
-        <v>0.8207483360265831</v>
+        <v>0.820748336026583</v>
       </c>
       <c r="D420">
         <v>0.5669409976438665</v>
       </c>
       <c r="E420">
-        <v>0.7792434360603021</v>
+        <v>0.7792434360603019</v>
       </c>
       <c r="F420">
-        <v>0.5354167437691528</v>
+        <v>0.5354167437691529</v>
       </c>
       <c r="G420">
         <v>0.7797058111029829</v>
@@ -11297,13 +11297,13 @@
         <v>0.6097604029696977</v>
       </c>
       <c r="C421">
-        <v>0.6796100610695957</v>
+        <v>0.6796100610695954</v>
       </c>
       <c r="D421">
         <v>0.6225441798565849</v>
       </c>
       <c r="E421">
-        <v>0.6554316115677744</v>
+        <v>0.6554316115677743</v>
       </c>
       <c r="F421">
         <v>0.5750998084459027</v>
@@ -11323,13 +11323,13 @@
         <v>0.6097604029696977</v>
       </c>
       <c r="C422">
-        <v>0.6796100610695957</v>
+        <v>0.6796100610695955</v>
       </c>
       <c r="D422">
         <v>0.6225441798565849</v>
       </c>
       <c r="E422">
-        <v>0.6554316115677745</v>
+        <v>0.6554316115677744</v>
       </c>
       <c r="F422">
         <v>0.5750998084459028</v>
@@ -11338,7 +11338,7 @@
         <v>0.6575126112547849</v>
       </c>
       <c r="H422">
-        <v>0.6507726354256357</v>
+        <v>0.6507726354256355</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11355,10 +11355,10 @@
         <v>0.5669409976438666</v>
       </c>
       <c r="E423">
-        <v>0.7792434360603021</v>
+        <v>0.7792434360603019</v>
       </c>
       <c r="F423">
-        <v>0.5354167437691529</v>
+        <v>0.535416743769153</v>
       </c>
       <c r="G423">
         <v>0.7797058111029829</v>
@@ -11372,7 +11372,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>0.5701228716027427</v>
+        <v>0.5701228716027426</v>
       </c>
       <c r="C424">
         <v>0.820748336026583</v>
@@ -11381,10 +11381,10 @@
         <v>0.5669409976438665</v>
       </c>
       <c r="E424">
-        <v>0.779243436060302</v>
+        <v>0.7792434360603019</v>
       </c>
       <c r="F424">
-        <v>0.5354167437691529</v>
+        <v>0.5354167437691528</v>
       </c>
       <c r="G424">
         <v>0.7797058111029829</v>
@@ -11401,7 +11401,7 @@
         <v>0.6097604029696977</v>
       </c>
       <c r="C425">
-        <v>0.6796100610695957</v>
+        <v>0.6796100610695954</v>
       </c>
       <c r="D425">
         <v>0.6225441798565849</v>
@@ -11416,7 +11416,7 @@
         <v>0.6575126112547849</v>
       </c>
       <c r="H425">
-        <v>0.6507726354256358</v>
+        <v>0.6507726354256356</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11427,13 +11427,13 @@
         <v>0.5701228716027426</v>
       </c>
       <c r="C426">
-        <v>0.8207483360265831</v>
+        <v>0.820748336026583</v>
       </c>
       <c r="D426">
         <v>0.5669409976438665</v>
       </c>
       <c r="E426">
-        <v>0.7792434360603021</v>
+        <v>0.7792434360603019</v>
       </c>
       <c r="F426">
         <v>0.5354167437691529</v>
@@ -11450,10 +11450,10 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>0.5627359876809863</v>
+        <v>0.5627359876809862</v>
       </c>
       <c r="C427">
-        <v>0.8537070654795528</v>
+        <v>0.8537070654795527</v>
       </c>
       <c r="D427">
         <v>0.5136937347950814</v>
@@ -11465,10 +11465,10 @@
         <v>0.5025341597970742</v>
       </c>
       <c r="G427">
-        <v>0.8072844341972359</v>
+        <v>0.8072844341972358</v>
       </c>
       <c r="H427">
-        <v>0.7950583497673835</v>
+        <v>0.7950583497673834</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11479,22 +11479,22 @@
         <v>0.5627359876809863</v>
       </c>
       <c r="C428">
-        <v>0.8537070654795528</v>
+        <v>0.8537070654795526</v>
       </c>
       <c r="D428">
         <v>0.5136937347950814</v>
       </c>
       <c r="E428">
-        <v>0.8094128875447488</v>
+        <v>0.8094128875447487</v>
       </c>
       <c r="F428">
         <v>0.5025341597970743</v>
       </c>
       <c r="G428">
-        <v>0.8072844341972359</v>
+        <v>0.8072844341972358</v>
       </c>
       <c r="H428">
-        <v>0.7950583497673835</v>
+        <v>0.7950583497673834</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11511,13 +11511,13 @@
         <v>0.5669409976438665</v>
       </c>
       <c r="E429">
-        <v>0.779243436060302</v>
+        <v>0.7792434360603019</v>
       </c>
       <c r="F429">
-        <v>0.5354167437691529</v>
+        <v>0.5354167437691528</v>
       </c>
       <c r="G429">
-        <v>0.7797058111029829</v>
+        <v>0.7797058111029826</v>
       </c>
       <c r="H429">
         <v>0.7681542713626512</v>
@@ -11537,7 +11537,7 @@
         <v>0.5669409976438665</v>
       </c>
       <c r="E430">
-        <v>0.7792434360603021</v>
+        <v>0.7792434360603019</v>
       </c>
       <c r="F430">
         <v>0.535416743769153</v>
@@ -11546,7 +11546,7 @@
         <v>0.7797058111029829</v>
       </c>
       <c r="H430">
-        <v>0.7681542713626514</v>
+        <v>0.7681542713626512</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11557,13 +11557,13 @@
         <v>0.6097604029696977</v>
       </c>
       <c r="C431">
-        <v>0.6796100610695957</v>
+        <v>0.6796100610695954</v>
       </c>
       <c r="D431">
         <v>0.6225441798565849</v>
       </c>
       <c r="E431">
-        <v>0.6554316115677744</v>
+        <v>0.6554316115677743</v>
       </c>
       <c r="F431">
         <v>0.5750998084459027</v>
@@ -11572,7 +11572,7 @@
         <v>0.6575126112547848</v>
       </c>
       <c r="H431">
-        <v>0.6507726354256356</v>
+        <v>0.6507726354256355</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11580,7 +11580,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>0.5701228716027427</v>
+        <v>0.5701228716027426</v>
       </c>
       <c r="C432">
         <v>0.820748336026583</v>
@@ -11589,7 +11589,7 @@
         <v>0.5669409976438665</v>
       </c>
       <c r="E432">
-        <v>0.779243436060302</v>
+        <v>0.7792434360603019</v>
       </c>
       <c r="F432">
         <v>0.5354167437691528</v>
@@ -11598,7 +11598,7 @@
         <v>0.7797058111029829</v>
       </c>
       <c r="H432">
-        <v>0.7681542713626514</v>
+        <v>0.7681542713626512</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11606,22 +11606,22 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>0.5701228716027427</v>
+        <v>0.5701228716027426</v>
       </c>
       <c r="C433">
-        <v>0.820748336026583</v>
+        <v>0.8207483360265829</v>
       </c>
       <c r="D433">
         <v>0.5669409976438665</v>
       </c>
       <c r="E433">
-        <v>0.7792434360603021</v>
+        <v>0.7792434360603019</v>
       </c>
       <c r="F433">
-        <v>0.5354167437691529</v>
+        <v>0.5354167437691528</v>
       </c>
       <c r="G433">
-        <v>0.7797058111029829</v>
+        <v>0.7797058111029828</v>
       </c>
       <c r="H433">
         <v>0.7681542713626512</v>
@@ -11635,16 +11635,16 @@
         <v>0.5568091574863485</v>
       </c>
       <c r="C434">
-        <v>0.6698208257649085</v>
+        <v>0.6698208257649084</v>
       </c>
       <c r="D434">
         <v>0.4145495415382552</v>
       </c>
       <c r="E434">
-        <v>0.6406669907346928</v>
+        <v>0.6406669907346927</v>
       </c>
       <c r="F434">
-        <v>0.4616323631462164</v>
+        <v>0.4616323631462163</v>
       </c>
       <c r="G434">
         <v>0.6368851925849054</v>
@@ -11658,22 +11658,22 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>0.5701228716027427</v>
+        <v>0.5701228716027426</v>
       </c>
       <c r="C435">
-        <v>0.820748336026583</v>
+        <v>0.8207483360265829</v>
       </c>
       <c r="D435">
         <v>0.5669409976438665</v>
       </c>
       <c r="E435">
-        <v>0.779243436060302</v>
+        <v>0.7792434360603017</v>
       </c>
       <c r="F435">
-        <v>0.5354167437691529</v>
+        <v>0.5354167437691528</v>
       </c>
       <c r="G435">
-        <v>0.7797058111029829</v>
+        <v>0.7797058111029828</v>
       </c>
       <c r="H435">
         <v>0.7681542713626512</v>
@@ -11684,22 +11684,22 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>0.5350981827599919</v>
+        <v>0.5350981827599917</v>
       </c>
       <c r="C436">
-        <v>0.7173914074670856</v>
+        <v>0.7173914074670855</v>
       </c>
       <c r="D436">
         <v>0.2479568799952597</v>
       </c>
       <c r="E436">
-        <v>0.6826325599914582</v>
+        <v>0.6826325599914581</v>
       </c>
       <c r="F436">
         <v>0.3825122998512662</v>
       </c>
       <c r="G436">
-        <v>0.6724246843969128</v>
+        <v>0.6724246843969127</v>
       </c>
       <c r="H436">
         <v>0.6662789951898884</v>
@@ -11713,19 +11713,19 @@
         <v>0.3851193202196228</v>
       </c>
       <c r="C437">
-        <v>0.5722622618453322</v>
+        <v>0.5722622618453321</v>
       </c>
       <c r="D437">
         <v>0.3628230912880264</v>
       </c>
       <c r="E437">
-        <v>0.5466606089426217</v>
+        <v>0.5466606089426218</v>
       </c>
       <c r="F437">
-        <v>0.3327613330300143</v>
+        <v>0.3327613330300144</v>
       </c>
       <c r="G437">
-        <v>0.5456733168673361</v>
+        <v>0.545673316867336</v>
       </c>
       <c r="H437">
         <v>0.5390926841975962</v>
@@ -11736,22 +11736,22 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>0.3851193202196228</v>
+        <v>0.3851193202196227</v>
       </c>
       <c r="C438">
-        <v>0.5722622618453321</v>
+        <v>0.5722622618453322</v>
       </c>
       <c r="D438">
         <v>0.3628230912880264</v>
       </c>
       <c r="E438">
-        <v>0.5466606089426216</v>
+        <v>0.5466606089426217</v>
       </c>
       <c r="F438">
         <v>0.3327613330300143</v>
       </c>
       <c r="G438">
-        <v>0.5456733168673361</v>
+        <v>0.5456733168673359</v>
       </c>
       <c r="H438">
         <v>0.5390926841975962</v>
@@ -11762,22 +11762,22 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>0.3851193202196228</v>
+        <v>0.3851193202196227</v>
       </c>
       <c r="C439">
-        <v>0.5722622618453322</v>
+        <v>0.5722622618453321</v>
       </c>
       <c r="D439">
         <v>0.3628230912880264</v>
       </c>
       <c r="E439">
-        <v>0.5466606089426216</v>
+        <v>0.5466606089426217</v>
       </c>
       <c r="F439">
-        <v>0.3327613330300143</v>
+        <v>0.3327613330300144</v>
       </c>
       <c r="G439">
-        <v>0.5456733168673361</v>
+        <v>0.545673316867336</v>
       </c>
       <c r="H439">
         <v>0.5390926841975962</v>
@@ -11788,7 +11788,7 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>0.3851193202196228</v>
+        <v>0.3851193202196227</v>
       </c>
       <c r="C440">
         <v>0.5722622618453322</v>
@@ -11797,13 +11797,13 @@
         <v>0.3628230912880264</v>
       </c>
       <c r="E440">
-        <v>0.5466606089426217</v>
+        <v>0.5466606089426218</v>
       </c>
       <c r="F440">
-        <v>0.3327613330300143</v>
+        <v>0.3327613330300144</v>
       </c>
       <c r="G440">
-        <v>0.545673316867336</v>
+        <v>0.5456733168673359</v>
       </c>
       <c r="H440">
         <v>0.5390926841975962</v>
@@ -11814,7 +11814,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>0.3851193202196228</v>
+        <v>0.3851193202196227</v>
       </c>
       <c r="C441">
         <v>0.5722622618453321</v>
@@ -11826,10 +11826,10 @@
         <v>0.5466606089426217</v>
       </c>
       <c r="F441">
-        <v>0.3327613330300143</v>
+        <v>0.3327613330300144</v>
       </c>
       <c r="G441">
-        <v>0.5456733168673361</v>
+        <v>0.5456733168673359</v>
       </c>
       <c r="H441">
         <v>0.5390926841975962</v>
@@ -11840,7 +11840,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>0.400489267866889</v>
+        <v>0.4004892678668889</v>
       </c>
       <c r="C442">
         <v>0.5282960827708907</v>
@@ -11855,7 +11855,7 @@
         <v>0.3406148525668988</v>
       </c>
       <c r="G442">
-        <v>0.5109003219965816</v>
+        <v>0.5109003219965815</v>
       </c>
       <c r="H442">
         <v>0.5082914552451262</v>
@@ -11866,10 +11866,10 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>0.3851193202196228</v>
+        <v>0.3851193202196227</v>
       </c>
       <c r="C443">
-        <v>0.5722622618453322</v>
+        <v>0.5722622618453321</v>
       </c>
       <c r="D443">
         <v>0.3628230912880263</v>
@@ -11878,10 +11878,10 @@
         <v>0.5466606089426217</v>
       </c>
       <c r="F443">
-        <v>0.3327613330300143</v>
+        <v>0.3327613330300144</v>
       </c>
       <c r="G443">
-        <v>0.545673316867336</v>
+        <v>0.5456733168673359</v>
       </c>
       <c r="H443">
         <v>0.5390926841975962</v>
@@ -11892,7 +11892,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>0.3851193202196228</v>
+        <v>0.3851193202196227</v>
       </c>
       <c r="C444">
         <v>0.5722622618453322</v>
@@ -11904,10 +11904,10 @@
         <v>0.5466606089426217</v>
       </c>
       <c r="F444">
-        <v>0.3327613330300143</v>
+        <v>0.3327613330300144</v>
       </c>
       <c r="G444">
-        <v>0.545673316867336</v>
+        <v>0.5456733168673359</v>
       </c>
       <c r="H444">
         <v>0.5390926841975962</v>
@@ -11918,10 +11918,10 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>0.3851193202196228</v>
+        <v>0.3851193202196227</v>
       </c>
       <c r="C445">
-        <v>0.5722622618453321</v>
+        <v>0.5722622618453322</v>
       </c>
       <c r="D445">
         <v>0.3628230912880264</v>
@@ -11930,10 +11930,10 @@
         <v>0.5466606089426217</v>
       </c>
       <c r="F445">
-        <v>0.3327613330300143</v>
+        <v>0.3327613330300144</v>
       </c>
       <c r="G445">
-        <v>0.5456733168673361</v>
+        <v>0.5456733168673359</v>
       </c>
       <c r="H445">
         <v>0.5390926841975962</v>
@@ -11944,7 +11944,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>0.3851193202196228</v>
+        <v>0.3851193202196227</v>
       </c>
       <c r="C446">
         <v>0.5722622618453321</v>
@@ -11959,7 +11959,7 @@
         <v>0.3327613330300143</v>
       </c>
       <c r="G446">
-        <v>0.545673316867336</v>
+        <v>0.5456733168673359</v>
       </c>
       <c r="H446">
         <v>0.5390926841975962</v>
@@ -11970,10 +11970,10 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>0.3851193202196228</v>
+        <v>0.3851193202196227</v>
       </c>
       <c r="C447">
-        <v>0.5722622618453321</v>
+        <v>0.5722622618453322</v>
       </c>
       <c r="D447">
         <v>0.3628230912880264</v>
@@ -11982,10 +11982,10 @@
         <v>0.5466606089426217</v>
       </c>
       <c r="F447">
-        <v>0.3327613330300143</v>
+        <v>0.3327613330300144</v>
       </c>
       <c r="G447">
-        <v>0.5456733168673361</v>
+        <v>0.5456733168673359</v>
       </c>
       <c r="H447">
         <v>0.5390926841975962</v>
@@ -12008,13 +12008,13 @@
         <v>0.9203768993454738</v>
       </c>
       <c r="F448">
-        <v>0.5971628921244762</v>
+        <v>0.5971628921244763</v>
       </c>
       <c r="G448">
         <v>0.9086229050109691</v>
       </c>
       <c r="H448">
-        <v>0.9019444484045612</v>
+        <v>0.901944448404561</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12028,7 +12028,7 @@
         <v>0.9673458807910774</v>
       </c>
       <c r="D449">
-        <v>0.3621724490659315</v>
+        <v>0.3621724490659316</v>
       </c>
       <c r="E449">
         <v>0.9203768993454738</v>
@@ -12040,7 +12040,7 @@
         <v>0.908622905010969</v>
       </c>
       <c r="H449">
-        <v>0.9019444484045612</v>
+        <v>0.9019444484045611</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12054,19 +12054,19 @@
         <v>0.9673458807910774</v>
       </c>
       <c r="D450">
-        <v>0.3621724490659315</v>
+        <v>0.3621724490659316</v>
       </c>
       <c r="E450">
         <v>0.9203768993454738</v>
       </c>
       <c r="F450">
-        <v>0.5971628921244762</v>
+        <v>0.5971628921244763</v>
       </c>
       <c r="G450">
         <v>0.9086229050109691</v>
       </c>
       <c r="H450">
-        <v>0.9019444484045613</v>
+        <v>0.9019444484045611</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12080,19 +12080,19 @@
         <v>0.9673458807910774</v>
       </c>
       <c r="D451">
-        <v>0.3621724490659315</v>
+        <v>0.3621724490659316</v>
       </c>
       <c r="E451">
         <v>0.9203768993454738</v>
       </c>
       <c r="F451">
-        <v>0.5971628921244762</v>
+        <v>0.5971628921244763</v>
       </c>
       <c r="G451">
         <v>0.9086229050109691</v>
       </c>
       <c r="H451">
-        <v>0.9019444484045613</v>
+        <v>0.9019444484045611</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12106,19 +12106,19 @@
         <v>0.9673458807910774</v>
       </c>
       <c r="D452">
-        <v>0.3621724490659315</v>
+        <v>0.3621724490659316</v>
       </c>
       <c r="E452">
         <v>0.9203768993454738</v>
       </c>
       <c r="F452">
-        <v>0.5971628921244762</v>
+        <v>0.5971628921244763</v>
       </c>
       <c r="G452">
         <v>0.908622905010969</v>
       </c>
       <c r="H452">
-        <v>0.9019444484045612</v>
+        <v>0.9019444484045611</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12138,13 +12138,13 @@
         <v>0.920376899345474</v>
       </c>
       <c r="F453">
-        <v>0.5971628921244762</v>
+        <v>0.5971628921244763</v>
       </c>
       <c r="G453">
         <v>0.908622905010969</v>
       </c>
       <c r="H453">
-        <v>0.9019444484045613</v>
+        <v>0.9019444484045611</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12152,10 +12152,10 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>0.5481531721812897</v>
+        <v>0.5481531721812894</v>
       </c>
       <c r="C454">
-        <v>0.9037555164651778</v>
+        <v>0.9037555164651777</v>
       </c>
       <c r="D454">
         <v>0.4695433700841404</v>
@@ -12178,7 +12178,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>0.5481531721812896</v>
+        <v>0.5481531721812894</v>
       </c>
       <c r="C455">
         <v>0.9037555164651776</v>
@@ -12190,13 +12190,13 @@
         <v>0.8561660926058923</v>
       </c>
       <c r="F455">
-        <v>0.4971147045156605</v>
+        <v>0.4971147045156606</v>
       </c>
       <c r="G455">
-        <v>0.8540190718382612</v>
+        <v>0.8540190718382611</v>
       </c>
       <c r="H455">
-        <v>0.8414451814482344</v>
+        <v>0.8414451814482342</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12207,7 +12207,7 @@
         <v>0.5481531721812896</v>
       </c>
       <c r="C456">
-        <v>0.9037555164651776</v>
+        <v>0.9037555164651775</v>
       </c>
       <c r="D456">
         <v>0.4695433700841404</v>
@@ -12216,13 +12216,13 @@
         <v>0.8561660926058923</v>
       </c>
       <c r="F456">
-        <v>0.4971147045156605</v>
+        <v>0.4971147045156606</v>
       </c>
       <c r="G456">
-        <v>0.8540190718382612</v>
+        <v>0.8540190718382611</v>
       </c>
       <c r="H456">
-        <v>0.8414451814482344</v>
+        <v>0.8414451814482343</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12242,13 +12242,13 @@
         <v>0.8561660926058924</v>
       </c>
       <c r="F457">
-        <v>0.4971147045156605</v>
+        <v>0.4971147045156606</v>
       </c>
       <c r="G457">
         <v>0.8540190718382612</v>
       </c>
       <c r="H457">
-        <v>0.8414451814482344</v>
+        <v>0.8414451814482343</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12259,7 +12259,7 @@
         <v>0.5481531721812896</v>
       </c>
       <c r="C458">
-        <v>0.9037555164651776</v>
+        <v>0.9037555164651777</v>
       </c>
       <c r="D458">
         <v>0.4695433700841404</v>
@@ -12274,7 +12274,7 @@
         <v>0.8540190718382612</v>
       </c>
       <c r="H458">
-        <v>0.8414451814482344</v>
+        <v>0.8414451814482343</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12282,10 +12282,10 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>0.5481531721812896</v>
+        <v>0.5481531721812894</v>
       </c>
       <c r="C459">
-        <v>0.9037555164651776</v>
+        <v>0.9037555164651775</v>
       </c>
       <c r="D459">
         <v>0.4695433700841404</v>
@@ -12294,13 +12294,13 @@
         <v>0.8561660926058923</v>
       </c>
       <c r="F459">
-        <v>0.4971147045156605</v>
+        <v>0.4971147045156606</v>
       </c>
       <c r="G459">
         <v>0.8540190718382612</v>
       </c>
       <c r="H459">
-        <v>0.8414451814482344</v>
+        <v>0.8414451814482343</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12308,10 +12308,10 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>0.5481531721812896</v>
+        <v>0.5481531721812894</v>
       </c>
       <c r="C460">
-        <v>0.9037555164651776</v>
+        <v>0.9037555164651775</v>
       </c>
       <c r="D460">
         <v>0.4695433700841404</v>
@@ -12320,13 +12320,13 @@
         <v>0.8561660926058923</v>
       </c>
       <c r="F460">
-        <v>0.4971147045156605</v>
+        <v>0.4971147045156606</v>
       </c>
       <c r="G460">
-        <v>0.8540190718382612</v>
+        <v>0.8540190718382611</v>
       </c>
       <c r="H460">
-        <v>0.8414451814482344</v>
+        <v>0.8414451814482342</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12337,7 +12337,7 @@
         <v>0.5481531721812896</v>
       </c>
       <c r="C461">
-        <v>0.9037555164651776</v>
+        <v>0.9037555164651775</v>
       </c>
       <c r="D461">
         <v>0.4695433700841404</v>
@@ -12346,13 +12346,13 @@
         <v>0.8561660926058924</v>
       </c>
       <c r="F461">
-        <v>0.4971147045156605</v>
+        <v>0.4971147045156606</v>
       </c>
       <c r="G461">
         <v>0.854019071838261</v>
       </c>
       <c r="H461">
-        <v>0.8414451814482344</v>
+        <v>0.8414451814482342</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12360,10 +12360,10 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>0.5481531721812896</v>
+        <v>0.5481531721812894</v>
       </c>
       <c r="C462">
-        <v>0.9037555164651776</v>
+        <v>0.9037555164651775</v>
       </c>
       <c r="D462">
         <v>0.4695433700841404</v>
@@ -12372,13 +12372,13 @@
         <v>0.8561660926058923</v>
       </c>
       <c r="F462">
-        <v>0.4971147045156605</v>
+        <v>0.4971147045156606</v>
       </c>
       <c r="G462">
         <v>0.8540190718382612</v>
       </c>
       <c r="H462">
-        <v>0.8414451814482344</v>
+        <v>0.8414451814482343</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12389,13 +12389,13 @@
         <v>0.5627359876809863</v>
       </c>
       <c r="C463">
-        <v>0.8537070654795528</v>
+        <v>0.8537070654795527</v>
       </c>
       <c r="D463">
         <v>0.5136937347950814</v>
       </c>
       <c r="E463">
-        <v>0.8094128875447488</v>
+        <v>0.8094128875447487</v>
       </c>
       <c r="F463">
         <v>0.5025341597970742</v>
@@ -12404,7 +12404,7 @@
         <v>0.8072844341972359</v>
       </c>
       <c r="H463">
-        <v>0.7950583497673835</v>
+        <v>0.7950583497673834</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12412,10 +12412,10 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>0.5627359876809863</v>
+        <v>0.5627359876809862</v>
       </c>
       <c r="C464">
-        <v>0.8537070654795528</v>
+        <v>0.8537070654795526</v>
       </c>
       <c r="D464">
         <v>0.5136937347950814</v>
@@ -12427,10 +12427,10 @@
         <v>0.5025341597970742</v>
       </c>
       <c r="G464">
-        <v>0.8072844341972359</v>
+        <v>0.8072844341972358</v>
       </c>
       <c r="H464">
-        <v>0.7950583497673835</v>
+        <v>0.7950583497673833</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12438,19 +12438,19 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>0.5568091574863485</v>
+        <v>0.5568091574863484</v>
       </c>
       <c r="C465">
-        <v>0.6698208257649085</v>
+        <v>0.6698208257649083</v>
       </c>
       <c r="D465">
         <v>0.4145495415382552</v>
       </c>
       <c r="E465">
-        <v>0.6406669907346928</v>
+        <v>0.6406669907346927</v>
       </c>
       <c r="F465">
-        <v>0.4616323631462164</v>
+        <v>0.4616323631462163</v>
       </c>
       <c r="G465">
         <v>0.6368851925849054</v>
@@ -12464,10 +12464,10 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>0.5493603822616697</v>
+        <v>0.5493603822616696</v>
       </c>
       <c r="C466">
-        <v>0.696796488558027</v>
+        <v>0.6967964885580269</v>
       </c>
       <c r="D466">
         <v>0.3730034006596568</v>
@@ -12476,7 +12476,7 @@
         <v>0.6650040871407384</v>
       </c>
       <c r="F466">
-        <v>0.4407833649069365</v>
+        <v>0.4407833649069364</v>
       </c>
       <c r="G466">
         <v>0.6599086362461166</v>
@@ -12493,22 +12493,22 @@
         <v>0.5627359876809863</v>
       </c>
       <c r="C467">
-        <v>0.8537070654795528</v>
+        <v>0.8537070654795527</v>
       </c>
       <c r="D467">
         <v>0.5136937347950814</v>
       </c>
       <c r="E467">
-        <v>0.8094128875447488</v>
+        <v>0.8094128875447487</v>
       </c>
       <c r="F467">
         <v>0.5025341597970743</v>
       </c>
       <c r="G467">
-        <v>0.8072844341972358</v>
+        <v>0.8072844341972357</v>
       </c>
       <c r="H467">
-        <v>0.7950583497673835</v>
+        <v>0.7950583497673833</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12528,13 +12528,13 @@
         <v>0.9203768993454738</v>
       </c>
       <c r="F468">
-        <v>0.5971628921244762</v>
+        <v>0.5971628921244763</v>
       </c>
       <c r="G468">
         <v>0.908622905010969</v>
       </c>
       <c r="H468">
-        <v>0.9019444484045612</v>
+        <v>0.9019444484045611</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12545,7 +12545,7 @@
         <v>0.7338601713594425</v>
       </c>
       <c r="C469">
-        <v>0.9673458807910775</v>
+        <v>0.9673458807910774</v>
       </c>
       <c r="D469">
         <v>0.3621724490659316</v>
@@ -12560,7 +12560,7 @@
         <v>0.9086229050109692</v>
       </c>
       <c r="H469">
-        <v>0.9019444484045613</v>
+        <v>0.9019444484045611</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12574,19 +12574,19 @@
         <v>0.9673458807910774</v>
       </c>
       <c r="D470">
-        <v>0.3621724490659315</v>
+        <v>0.3621724490659316</v>
       </c>
       <c r="E470">
         <v>0.9203768993454738</v>
       </c>
       <c r="F470">
-        <v>0.5971628921244762</v>
+        <v>0.5971628921244763</v>
       </c>
       <c r="G470">
         <v>0.9086229050109692</v>
       </c>
       <c r="H470">
-        <v>0.9019444484045613</v>
+        <v>0.9019444484045611</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12594,25 +12594,25 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>0.5627359876809863</v>
+        <v>0.5627359876809862</v>
       </c>
       <c r="C471">
-        <v>0.8537070654795528</v>
+        <v>0.8537070654795526</v>
       </c>
       <c r="D471">
         <v>0.5136937347950814</v>
       </c>
       <c r="E471">
-        <v>0.8094128875447487</v>
+        <v>0.8094128875447486</v>
       </c>
       <c r="F471">
         <v>0.5025341597970743</v>
       </c>
       <c r="G471">
-        <v>0.8072844341972358</v>
+        <v>0.8072844341972357</v>
       </c>
       <c r="H471">
-        <v>0.7950583497673835</v>
+        <v>0.7950583497673833</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12620,10 +12620,10 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>0.5481531721812896</v>
+        <v>0.5481531721812894</v>
       </c>
       <c r="C472">
-        <v>0.9037555164651776</v>
+        <v>0.9037555164651775</v>
       </c>
       <c r="D472">
         <v>0.4695433700841404</v>
@@ -12632,13 +12632,13 @@
         <v>0.8561660926058923</v>
       </c>
       <c r="F472">
-        <v>0.4971147045156605</v>
+        <v>0.4971147045156606</v>
       </c>
       <c r="G472">
         <v>0.854019071838261</v>
       </c>
       <c r="H472">
-        <v>0.8414451814482344</v>
+        <v>0.8414451814482343</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12646,10 +12646,10 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>0.5493603822616697</v>
+        <v>0.5493603822616696</v>
       </c>
       <c r="C473">
-        <v>0.6967964885580271</v>
+        <v>0.6967964885580269</v>
       </c>
       <c r="D473">
         <v>0.3730034006596568</v>
@@ -12658,7 +12658,7 @@
         <v>0.6650040871407384</v>
       </c>
       <c r="F473">
-        <v>0.4407833649069365</v>
+        <v>0.4407833649069364</v>
       </c>
       <c r="G473">
         <v>0.6599086362461166</v>
@@ -12675,19 +12675,19 @@
         <v>0.5493603822616697</v>
       </c>
       <c r="C474">
-        <v>0.6967964885580271</v>
+        <v>0.6967964885580269</v>
       </c>
       <c r="D474">
         <v>0.3730034006596568</v>
       </c>
       <c r="E474">
-        <v>0.6650040871407386</v>
+        <v>0.6650040871407384</v>
       </c>
       <c r="F474">
-        <v>0.4407833649069364</v>
+        <v>0.4407833649069363</v>
       </c>
       <c r="G474">
-        <v>0.6599086362461168</v>
+        <v>0.6599086362461167</v>
       </c>
       <c r="H474">
         <v>0.6530901639157831</v>
@@ -12698,7 +12698,7 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>0.5350981827599918</v>
+        <v>0.5350981827599917</v>
       </c>
       <c r="C475">
         <v>0.7173914074670856</v>
@@ -12707,13 +12707,13 @@
         <v>0.2479568799952597</v>
       </c>
       <c r="E475">
-        <v>0.6826325599914582</v>
+        <v>0.6826325599914581</v>
       </c>
       <c r="F475">
-        <v>0.3825122998512663</v>
+        <v>0.3825122998512662</v>
       </c>
       <c r="G475">
-        <v>0.6724246843969128</v>
+        <v>0.6724246843969127</v>
       </c>
       <c r="H475">
         <v>0.6662789951898884</v>
@@ -12724,25 +12724,25 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>0.3946499514360725</v>
+        <v>0.3946499514360724</v>
       </c>
       <c r="C476">
-        <v>0.6843889193535668</v>
+        <v>0.6843889193535667</v>
       </c>
       <c r="D476">
         <v>0.3122917981621115</v>
       </c>
       <c r="E476">
-        <v>0.6492096682192405</v>
+        <v>0.6492096682192404</v>
       </c>
       <c r="F476">
         <v>0.3432896963391412</v>
       </c>
       <c r="G476">
-        <v>0.6451751741066331</v>
+        <v>0.6451751741066329</v>
       </c>
       <c r="H476">
-        <v>0.6366043960370809</v>
+        <v>0.6366043960370807</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12750,25 +12750,25 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>0.3946499514360725</v>
+        <v>0.3946499514360724</v>
       </c>
       <c r="C477">
-        <v>0.6843889193535669</v>
+        <v>0.6843889193535667</v>
       </c>
       <c r="D477">
         <v>0.3122917981621115</v>
       </c>
       <c r="E477">
-        <v>0.6492096682192405</v>
+        <v>0.6492096682192404</v>
       </c>
       <c r="F477">
         <v>0.3432896963391412</v>
       </c>
       <c r="G477">
-        <v>0.6451751741066332</v>
+        <v>0.6451751741066329</v>
       </c>
       <c r="H477">
-        <v>0.6366043960370809</v>
+        <v>0.6366043960370807</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12776,13 +12776,13 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>0.8589373896328881</v>
+        <v>0.858937389632888</v>
       </c>
       <c r="C478">
         <v>0.6385650419804803</v>
       </c>
       <c r="D478">
-        <v>0.5796305016592113</v>
+        <v>0.5796305016592114</v>
       </c>
       <c r="E478">
         <v>0.6205020271112497</v>
@@ -12791,7 +12791,7 @@
         <v>0.6356553362387783</v>
       </c>
       <c r="G478">
-        <v>0.6168001162498824</v>
+        <v>0.6168001162498823</v>
       </c>
       <c r="H478">
         <v>0.6119945479208888</v>
@@ -12805,10 +12805,10 @@
         <v>0.7741824308061517</v>
       </c>
       <c r="C479">
-        <v>0.7271504238169328</v>
+        <v>0.7271504238169327</v>
       </c>
       <c r="D479">
-        <v>0.5353793893032375</v>
+        <v>0.5353793893032374</v>
       </c>
       <c r="E479">
         <v>0.6935911077154999</v>
@@ -12828,16 +12828,16 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>0.8325180953644574</v>
+        <v>0.8325180953644572</v>
       </c>
       <c r="C480">
-        <v>0.7681606741898604</v>
+        <v>0.7681606741898602</v>
       </c>
       <c r="D480">
-        <v>0.5385669366597463</v>
+        <v>0.5385669366597464</v>
       </c>
       <c r="E480">
-        <v>0.7332280013733923</v>
+        <v>0.7332280013733922</v>
       </c>
       <c r="F480">
         <v>0.6120145516650373</v>
@@ -12846,7 +12846,7 @@
         <v>0.7297357921950741</v>
       </c>
       <c r="H480">
-        <v>0.7200373787668389</v>
+        <v>0.7200373787668388</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12854,13 +12854,13 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>0.8589373896328882</v>
+        <v>0.8589373896328881</v>
       </c>
       <c r="C481">
         <v>0.6385650419804803</v>
       </c>
       <c r="D481">
-        <v>0.5796305016592113</v>
+        <v>0.5796305016592114</v>
       </c>
       <c r="E481">
         <v>0.6205020271112497</v>
@@ -12869,7 +12869,7 @@
         <v>0.6356553362387783</v>
       </c>
       <c r="G481">
-        <v>0.6168001162498824</v>
+        <v>0.6168001162498823</v>
       </c>
       <c r="H481">
         <v>0.6119945479208888</v>
@@ -12880,13 +12880,13 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>0.8589373896328882</v>
+        <v>0.8589373896328881</v>
       </c>
       <c r="C482">
-        <v>0.6385650419804804</v>
+        <v>0.6385650419804803</v>
       </c>
       <c r="D482">
-        <v>0.5796305016592113</v>
+        <v>0.5796305016592114</v>
       </c>
       <c r="E482">
         <v>0.6205020271112497</v>
@@ -12895,7 +12895,7 @@
         <v>0.6356553362387783</v>
       </c>
       <c r="G482">
-        <v>0.6168001162498825</v>
+        <v>0.6168001162498823</v>
       </c>
       <c r="H482">
         <v>0.6119945479208888</v>
@@ -12906,13 +12906,13 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>0.8589373896328882</v>
+        <v>0.8589373896328881</v>
       </c>
       <c r="C483">
         <v>0.6385650419804803</v>
       </c>
       <c r="D483">
-        <v>0.5796305016592113</v>
+        <v>0.5796305016592114</v>
       </c>
       <c r="E483">
         <v>0.6205020271112497</v>
@@ -12921,7 +12921,7 @@
         <v>0.6356553362387783</v>
       </c>
       <c r="G483">
-        <v>0.6168001162498824</v>
+        <v>0.6168001162498823</v>
       </c>
       <c r="H483">
         <v>0.6119945479208888</v>
@@ -12932,22 +12932,22 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>0.8589373896328882</v>
+        <v>0.8589373896328881</v>
       </c>
       <c r="C484">
         <v>0.6385650419804803</v>
       </c>
       <c r="D484">
-        <v>0.5796305016592113</v>
+        <v>0.5796305016592114</v>
       </c>
       <c r="E484">
-        <v>0.6205020271112498</v>
+        <v>0.6205020271112497</v>
       </c>
       <c r="F484">
         <v>0.6356553362387785</v>
       </c>
       <c r="G484">
-        <v>0.6168001162498824</v>
+        <v>0.6168001162498823</v>
       </c>
       <c r="H484">
         <v>0.6119945479208888</v>
@@ -12958,16 +12958,16 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>0.8325180953644574</v>
+        <v>0.8325180953644572</v>
       </c>
       <c r="C485">
-        <v>0.7681606741898604</v>
+        <v>0.7681606741898602</v>
       </c>
       <c r="D485">
-        <v>0.5385669366597463</v>
+        <v>0.5385669366597464</v>
       </c>
       <c r="E485">
-        <v>0.7332280013733923</v>
+        <v>0.7332280013733922</v>
       </c>
       <c r="F485">
         <v>0.6120145516650374</v>
@@ -12976,7 +12976,7 @@
         <v>0.7297357921950741</v>
       </c>
       <c r="H485">
-        <v>0.7200373787668389</v>
+        <v>0.7200373787668388</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -12984,16 +12984,16 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>0.8129731916711225</v>
+        <v>0.8129731916711224</v>
       </c>
       <c r="C486">
         <v>0.7499607808595553</v>
       </c>
       <c r="D486">
-        <v>0.563643107204602</v>
+        <v>0.5636431072046021</v>
       </c>
       <c r="E486">
-        <v>0.7159597468544745</v>
+        <v>0.7159597468544743</v>
       </c>
       <c r="F486">
         <v>0.6079744058736298</v>
@@ -13002,7 +13002,7 @@
         <v>0.7141622540138708</v>
       </c>
       <c r="H486">
-        <v>0.704430136522544</v>
+        <v>0.7044301365225439</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13010,16 +13010,16 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>0.8102001580676798</v>
+        <v>0.8102001580676795</v>
       </c>
       <c r="C487">
-        <v>0.7113070732643785</v>
+        <v>0.7113070732643786</v>
       </c>
       <c r="D487">
         <v>0.4608373624130154</v>
       </c>
       <c r="E487">
-        <v>0.6794274073815901</v>
+        <v>0.67942740738159</v>
       </c>
       <c r="F487">
         <v>0.5778473622686232</v>
@@ -13036,10 +13036,10 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>0.7507033857548691</v>
+        <v>0.7507033857548689</v>
       </c>
       <c r="C488">
-        <v>0.7235990087090689</v>
+        <v>0.723599008709069</v>
       </c>
       <c r="D488">
         <v>0.490700027277299</v>
@@ -13048,10 +13048,10 @@
         <v>0.6901642399334351</v>
       </c>
       <c r="F488">
-        <v>0.5467170805653965</v>
+        <v>0.5467170805653964</v>
       </c>
       <c r="G488">
-        <v>0.683788894898226</v>
+        <v>0.6837888948982258</v>
       </c>
       <c r="H488">
         <v>0.6754578213871237</v>
@@ -13074,13 +13074,13 @@
         <v>0.690164239933435</v>
       </c>
       <c r="F489">
-        <v>0.5467170805653965</v>
+        <v>0.5467170805653964</v>
       </c>
       <c r="G489">
-        <v>0.6837888948982259</v>
+        <v>0.6837888948982257</v>
       </c>
       <c r="H489">
-        <v>0.6754578213871238</v>
+        <v>0.6754578213871237</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13088,10 +13088,10 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>0.8849622531184079</v>
+        <v>0.8849622531184078</v>
       </c>
       <c r="C490">
-        <v>0.9388930854102204</v>
+        <v>0.9388930854102203</v>
       </c>
       <c r="D490">
         <v>0.6079141748222989</v>
@@ -13100,13 +13100,13 @@
         <v>0.8907416654042315</v>
       </c>
       <c r="F490">
-        <v>0.6973477655186987</v>
+        <v>0.6973477655186989</v>
       </c>
       <c r="G490">
         <v>0.888253643622342</v>
       </c>
       <c r="H490">
-        <v>0.8754168552859448</v>
+        <v>0.8754168552859445</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13114,7 +13114,7 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>0.8836447726452917</v>
+        <v>0.8836447726452916</v>
       </c>
       <c r="C491">
         <v>0.9748548710736423</v>
@@ -13123,16 +13123,16 @@
         <v>0.5668336929843173</v>
       </c>
       <c r="E491">
-        <v>0.9228599615124782</v>
+        <v>0.9228599615124781</v>
       </c>
       <c r="F491">
-        <v>0.6764406247947327</v>
+        <v>0.6764406247947328</v>
       </c>
       <c r="G491">
         <v>0.9186907165727564</v>
       </c>
       <c r="H491">
-        <v>0.905039753280828</v>
+        <v>0.9050397532808278</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13140,7 +13140,7 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>0.8849622531184081</v>
+        <v>0.8849622531184078</v>
       </c>
       <c r="C492">
         <v>0.9388930854102205</v>
@@ -13158,7 +13158,7 @@
         <v>0.888253643622342</v>
       </c>
       <c r="H492">
-        <v>0.8754168552859448</v>
+        <v>0.8754168552859447</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13166,7 +13166,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>0.8849622531184081</v>
+        <v>0.8849622531184079</v>
       </c>
       <c r="C493">
         <v>0.9388930854102205</v>
@@ -13184,7 +13184,7 @@
         <v>0.888253643622342</v>
       </c>
       <c r="H493">
-        <v>0.8754168552859448</v>
+        <v>0.8754168552859445</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13192,7 +13192,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>0.8849622531184079</v>
+        <v>0.8849622531184078</v>
       </c>
       <c r="C494">
         <v>0.9388930854102203</v>
@@ -13210,7 +13210,7 @@
         <v>0.888253643622342</v>
       </c>
       <c r="H494">
-        <v>0.8754168552859448</v>
+        <v>0.8754168552859446</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13227,7 +13227,7 @@
         <v>0.3022172996737025</v>
       </c>
       <c r="E495">
-        <v>0.9555655925095379</v>
+        <v>0.9555655925095378</v>
       </c>
       <c r="F495">
         <v>0.5548911858375353</v>
@@ -13236,7 +13236,7 @@
         <v>0.9437655169640243</v>
       </c>
       <c r="H495">
-        <v>0.9323073533914322</v>
+        <v>0.9323073533914319</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13244,7 +13244,7 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>0.832467089195263</v>
+        <v>0.8324670891952629</v>
       </c>
       <c r="C496">
         <v>1.051150057498184</v>
@@ -13259,10 +13259,10 @@
         <v>0.6258173810214817</v>
       </c>
       <c r="G496">
-        <v>0.9841533895111401</v>
+        <v>0.9841533895111398</v>
       </c>
       <c r="H496">
-        <v>0.9704137352978084</v>
+        <v>0.9704137352978085</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13285,10 +13285,10 @@
         <v>0.5548911858375353</v>
       </c>
       <c r="G497">
-        <v>0.9437655169640244</v>
+        <v>0.9437655169640243</v>
       </c>
       <c r="H497">
-        <v>0.9323073533914322</v>
+        <v>0.9323073533914319</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13296,7 +13296,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>0.7879735517501542</v>
+        <v>0.787973551750154</v>
       </c>
       <c r="C498">
         <v>0.9712839797233334</v>
@@ -13311,7 +13311,7 @@
         <v>0.5779713749709943</v>
       </c>
       <c r="G498">
-        <v>0.9067806604071276</v>
+        <v>0.9067806604071275</v>
       </c>
       <c r="H498">
         <v>0.897402986461952</v>
@@ -13322,7 +13322,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>0.7879735517501542</v>
+        <v>0.787973551750154</v>
       </c>
       <c r="C499">
         <v>0.9712839797233335</v>
@@ -13331,13 +13331,13 @@
         <v>0.433418895767924</v>
       </c>
       <c r="E499">
-        <v>0.9191833249979524</v>
+        <v>0.9191833249979523</v>
       </c>
       <c r="F499">
         <v>0.5779713749709943</v>
       </c>
       <c r="G499">
-        <v>0.9067806604071276</v>
+        <v>0.9067806604071275</v>
       </c>
       <c r="H499">
         <v>0.897402986461952</v>
@@ -13351,13 +13351,13 @@
         <v>0.787973551750154</v>
       </c>
       <c r="C500">
-        <v>0.9712839797233334</v>
+        <v>0.9712839797233332</v>
       </c>
       <c r="D500">
         <v>0.433418895767924</v>
       </c>
       <c r="E500">
-        <v>0.9191833249979524</v>
+        <v>0.9191833249979522</v>
       </c>
       <c r="F500">
         <v>0.5779713749709943</v>
@@ -13374,13 +13374,13 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>0.7912978716338995</v>
+        <v>0.7912978716338996</v>
       </c>
       <c r="C501">
         <v>0.7445245963170439</v>
       </c>
       <c r="D501">
-        <v>0.4571782604077164</v>
+        <v>0.4571782604077165</v>
       </c>
       <c r="E501">
         <v>0.7107324504435367</v>
@@ -13392,7 +13392,7 @@
         <v>0.700768267733279</v>
       </c>
       <c r="H501">
-        <v>0.6944941803214265</v>
+        <v>0.6944941803214266</v>
       </c>
     </row>
   </sheetData>
